--- a/Normal1.xlsx
+++ b/Normal1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\נורמליים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\עברית\נורמליים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D1FAB-AE15-40B4-8584-09FA3F2B0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AE066-FD84-4D71-BB05-C5ED59692F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="670">
   <si>
     <t>Serie</t>
   </si>
@@ -1181,18 +1181,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/1001950431643267/user/565419238/</t>
-  </si>
-  <si>
-    <t>שלום לכולם, כידוע לכם דף "פניות הציבור" פועל מזה למעלה מעשור בין היתר בהנגשת נושאים צרכניים בוערים והעלאת המודעות בכל הקשור לעוולות שבשגרה כלפי האזרח הקטן.
-כעת, לאחר למעלה מעשר שנים, בשלה השעה להקים אף קבוצה למתן ייעוץ, ליווי ומענה בנושאי צרכנות בפרט (גבייה שלא כדין מאמצעי החיוב, הטרדות טלפוניות והודעות ספאם לנייד ו/או לדוא"ל, אי עמידה בתנאי אחריות מוצר, סירוב להחזיר מוצר ו/או לבטל עסקה בהתאם לחוק הגנת הצרכן, חברות תקשורת ש"מקפיצות" מחירים ללא ידיעת הלקוחות) ונושאים משפטיים כלליים (נזיקין, ביטוח לאומי, הסכמי מכר ושכירות, צוואות, תשלומי מזונות ועוד..) המעסיקים את רובנו ככולנו בחיי היומיום.
-מוזמנים לשתף בפוסטים אנונימיים ומזוהים כאחד בסוגיות בהם אתם נתקלים, ומנהל הקבוצה ישתדל להשיב בהקדם ככל הניתן במענה ראשוני משפטי שאינו מחייב. מעת לעת, אף יועלו פרסומים משפטיים הכוללים פסקי דין מהערכאות השונות לטובת חברי הקבוצה.
-תקנון הקבוצה:
-1. הקבוצה פתוחה למענה לכל מי שחפץ בכך, לרבות עורכי דין, אך עם זאת אין לפרסם תוכן שיווקי בקבוצה ו/או להמליץ על עורכי דין, ימי עיון וכיו"ב ללא אישור ממנהל הקבוצה.
-2. תגובות עורכי הדין יכללו מענה משפטי בלבד בציון העובדה שהינם עורכי דין ללא קישורים והפניות לאתרים חיצוניים.
-3. יובהר, כי ישנם נושאים מורכבים שלא יתאפשר ליתן עבורם ייעוץ בפלטפורמת הקבוצה. ולצורך זאת, יתאפשר להשאיר טלפון בפרטי ומנהל הקבוצה ידאג ליצור עמכם קשר.
-4. הקבוצה אינה מהווה חלופה לייעוץ משפטי מכל סוג שהוא ו/או המלצה לנקוט בהליכים או להימנע מהם, וחבר הקבוצה מאשר בהצטרפותו לקבוצה כי הסתמכות על המידע שיינתן בקבוצה הינו באחריותו בלבד.
-5. השימוש בקבוצה מהווה הסכמת המשתמש לסעיפי התקנון לעיל, ולמנהל הקבוצה שמורה הזכות להסיר משתמשים ו/או למחוק תוכן בהתאם לשיקול דעתו ללא הודעה/אזהרה מוקדמת.
-6. נא שמרו על שפה נקייה ושיח מכבד והולם במסגרת הקבוצה.</t>
   </si>
   <si>
     <t>היי חבר'ה אני נשוי פלוס 3 ונמאס לי לחיות כחרדי לא שומר שבת לא מתפלל אבל מה הלאה איך גומרים אם הכל מי שהוא יכול לעזור לי</t>
@@ -2545,50 +2533,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/asifelka/posts/pfbid02ybPbXa9K1VoPEmsbWgDusKRLQ945vXh1j4anbD7tao8HBJVU3bwqLdrfrXXRctHHl</t>
-  </si>
-  <si>
-    <t>החיים מורכבים. 
-יאיר גולן, שנוא נפשו של הימין הישראלי, חירף את נפשו למות להצלת יהודים משחיטה. גיבור ישראל. 
-החיים מורכבים. 
-מתנחלים, נערי גבעות, שנואי נפשו של השמאל הישראלי, הטילו עצמם אל התופת ונפלו בעשרותיהם בקרבות להגנת קיבוצי העוטף. 
-החיים מורכבים.  
-כהונתו של נתניהו, מר ביטחון, מסתיימת באסון הביטחוני הגדול ביותר בתולדות ישראל. 
-החיים מורכבים.
-ביידן, הנשיא האמריקני המושמץ בישראל, האיש שנתפס כרופס וכחדל אישים, מתגלה כידיד אמת וכמשענת בעת צרה.
-החיים מורכבים.
-מי שחשב שאפשר להשתעשע בסרבנות ובסדיקת מערך המילואים, נאלץ להתגייס ב-150% התייצבות.
-החיים מורכבים.
-מי שסמך על ממשלת ימין מלא מלא, קיבל אסון מלא מלא.
-החיים מורכבים.
-מי שלא הסכים עד אתמול אפילו להרוס בתי מחבלים, קורא היום לשטח את עזה.
-החיים מורכבים.
-מי שנידה את החרדים, גילה שהם כאן, מתנדבים למשימות האזרחיות הנוראות ביותר. 
-מי שהכריז שאיננו אחים עוד, גילה למרבה הזוועה שאנחנו אחים לטבח.
-מי שחשב שההתנתקות, מי ששם מבטחו במודיעין, מי שסמך על מצלמות וגדרות חכמות, מי שהאמין שהמתנחלים, מי שאמר שהשמאלנים, מי שהעריך שהערבים...
-החיים מורכבים.
-*
-קונספציות נשברות. אמונות יסוד מתערערות. תפיסות עולם מתאדות. 
-הכל משתנה ברגעים אלה, והשינוי יורד עד לשורשי האמונות של החברה הישראלית. תמורות עולם בפתח.
-מי שלא רואה זאת. מי שעדיין תקוע על תפיסותיו הקודמות כפי שהן. מי שמוצא בהתרחשויות רק עוד הוכחה לשיטתו. מי שנשאר צודק כאתמול, יודע כל כאשתקד. מי שהשקפותיו לא עוברות כעת עדכון גרסה. מי שלא עוצר רגע לחשוב. ובכן, לא הבין כלום. הוא איש האתמול.
-אל תהיו אנשי האתמול! אל תשובו אל הוויכוחים הישנים ככלב השב אל קיאו. אל תיחפזו להסיק את המסקנות עבור הצד השני. אל תשמחו לאיד. אל תשושו אלי התכתשות. אל תעלוצו על המתפכחים, כי גם אתם תיאלצו להתפכח. אל תודיעו על מפלת הימין, אל תכריזו על קריסת השמאל. כולנו קרסנו. כולנו נפלנו.
-הימין טעה. השמאל שגה. כולנו כשלנו.
-זמן לשינויים מרחיקי לכת בחברה הישראלית.
-@בעז לוי</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/asifelka/posts/pfbid02cVN1cqSC1GB6jSv3esgv8Z32q7MWcSGtDbByum84TbWXGSQdMBWKhkUNSX2AvPvzl</t>
-  </si>
-  <si>
-    <t>כך נראה חמ"ל "אחיות ברזל" של נשים חרדיות (שממוקם אגב בתוך חנות פאות שתרמה את השטח) וזה אחד הדברים שמחזיקים אותי בימים האחרונים מלא ליפול לתהום. לפני שבוע בדיוק כתבתי לחברה חרדית הודעה בסגנון "יש לנשים חרדיות שרובן לא שולחות את בעלן למילואים הזדמנות להירתם עכשיו בצורה המונית לטובת הכלל" ומאז אותה הודעה אני מתגלגלת יחד איתן ונותרתי פעורת פה מקצב ההתקדמות. יש היום משהו כמו 150 רכזות שכונתיות ומעל 1,000 מתנדבות בכל הארץ. חיברתי אותן עם חמ"לים מקומיים ומיזמים אזרחיים מסוגים שונים שקמים עכשיו בכל מקום ועושים עבודה מדהימה. ביום חמישי הן בישלו ארוחות שבת ל-320 משפחות רק בירושלים. היום בין היתר הן מצאו דירות אירוח בתוך שכונות חרדיות לעשרות משפחות, הגיעו לנחם בלוויות ושבעות, בישלו 400 מנות לחיילים, הגיעו למלונות שונים להפעיל ילדים מפונים ובישלו עשרות רבות של ארוחות למשפחות מפונות.  
-ועכשיו הן רוצות להגיע לנשים בכל הארץ (כגון נשים במשפחות מפונים/פצועים/נרצחים/מילואימניקים) שזקוקות לסיוע כמו בישול, עזרה עם הילדים, אוזן קשבת וכל דבר נוסף. השאיפה היא לשדך לכל משפחה מתנדבת מתוך מאגר המתנדבות שתלווה ותסייע לאורך זמן במה שצריך. 
-מי יכולה לסייע לי להפיץ את היוזמה בקבוצות פייסבוק וואטסאפ של נשים ברחבי הארץ? אני מעט תובעת במשימות. מצרפת בתגובות את הפלאייר ואת טופס ההרשמה שניתנים להפצה.
-כי אם פוליטיקאים היו עסוקים כבר שנים בהסתה שנאה ופירוד, אנחנו נייצר את השינוי. אתם רק אל תפריעו בבקשה.
-אחותי - אני קוראת לך
-באם את צריכה עזרה בשל מלחמת חרבות ברזל,  מלאי את הטופס בלינק, ומשהי מ"אחיות מברזל" תהווה בשבילך אשת קשר אישית למערך ענק של אחיות שמחכות לתת לך יד.  
-קישור בסטורי</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/asifelka/posts/pfbid02z6Ypjgf8tM1id54yf9CdE57B5buhG7fYxHPfVLsdGJfhtvbrq8G8WfPdT3sQLudDl</t>
   </si>
   <si>
     <t>פעם הייתי ברמן, מזגתי בירה ברחובות עיר הקודש.
@@ -3151,6 +3095,43 @@
   <si>
     <t>https://www.askp.co.il/question/252322</t>
   </si>
+  <si>
+    <t>אני הרבה זמן שמה לב שאני יותר חרמנית באמצע מחזור, ויותר בא לי לנסות אפילו אנאלי באמצע מחזור
+האם זה בסדר בכלל לרצות סקס באמצע מחזור?
+והאם יש גבר כזה שלא יגעל מזה, ומזה שאני שמנה..
+בבקשה בלי הערות מעליבות , תודה</t>
+  </si>
+  <si>
+    <t>השמנה</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/386882</t>
+  </si>
+  <si>
+    <t>אני בן אדם מבולבל. נגיד שאני מביא מים לרעב, ולחם לצמא: איזה בן אדם אני? נגיד שאני עובד בחנות בגדים. יש לי לקוח שרוצה חולצה אדומה, ולקוח שרוצה חולצה ירוקה. אני מביא חולצה ירוקה ללקוח
+שרוצה חולצה אדומה, ומביא חולצה אדומה ללקוח שרוצה חולצה ירוקה: איזה בן אדם אני? נגיד שאני עובד בחנות נעליים. יש לי לקוח שרוצה נעליים צהובות, ולקוח שרוצה נעליים כחולות. אני מביא נעליים כחולות ללקוח שרוצה נעליים צהובות, ומביא
+נעליים צהובות ללקוח שרוצה נעליים כחולות: איזה בן
+אדם אני? איזה בן אדם מבולבל אני ואיך אפסיק להיות אדם כזה?</t>
+  </si>
+  <si>
+    <t>לא ניתן להבנה</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/386881</t>
+  </si>
+  <si>
+    <t>איך להפסיק התמכרות לסקס?
+אני עובדת ולומדת
+ועדיין אני מחפשת את זה ומקבלת את זה..
+התמכרות לא ככ מפסיקה בקלות
+אני שוקלת אם ללכת לגמילה אבל אני מפחדת שזה יעלה לי מלא כסף..</t>
+  </si>
+  <si>
+    <t>אלה</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/386873</t>
+  </si>
 </sst>
 </file>
 
@@ -3160,7 +3141,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3179,7 +3160,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3219,7 +3200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3228,6 +3209,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3532,13 +3516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3570,13 +3557,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3614,7 +3601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3649,7 +3636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3687,7 +3674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3725,7 +3712,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3763,7 +3750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3804,7 +3791,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3854,10 +3841,10 @@
         <v>28</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3895,19 +3882,19 @@
         <v>33</v>
       </c>
       <c r="T9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U9">
         <v>97</v>
       </c>
       <c r="V9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3945,7 +3932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3980,7 +3967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4015,13 +4002,13 @@
         <v>58</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4059,7 +4046,7 @@
         <v>55</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P13">
         <v>93255</v>
@@ -4068,7 +4055,7 @@
         <v>20425</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4106,7 +4093,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="P14">
         <v>373.02</v>
@@ -4115,7 +4102,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4153,7 +4140,7 @@
         <v>66</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P15">
         <v>236.5</v>
@@ -4162,7 +4149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4200,7 +4187,7 @@
         <v>26</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P16">
         <v>118110.099999999</v>
@@ -4209,7 +4196,7 @@
         <v>5380.0903614457802</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4247,7 +4234,7 @@
         <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="P17">
         <v>343.67150012766501</v>
@@ -4256,7 +4243,7 @@
         <v>73.349099254495101</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4294,7 +4281,7 @@
         <v>35</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P18">
         <v>1725</v>
@@ -4303,7 +4290,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4341,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="P19">
         <v>46</v>
@@ -4350,7 +4337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4385,7 +4372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4423,7 +4410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4461,7 +4448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4499,7 +4486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4537,7 +4524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4575,7 +4562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4613,7 +4600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4648,7 +4635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4686,7 +4673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4724,7 +4711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4762,7 +4749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4800,7 +4787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4835,7 +4822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4873,7 +4860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4911,7 +4898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4949,7 +4936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4987,7 +4974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5025,7 +5012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5063,7 +5050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5098,7 +5085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5136,7 +5123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5174,7 +5161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5212,7 +5199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5250,7 +5237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5288,7 +5275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5326,7 +5313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5364,7 +5351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5402,7 +5389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5440,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5478,7 +5465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5513,7 +5500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5551,7 +5538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5589,7 +5576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5627,7 +5614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5665,7 +5652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5703,7 +5690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5741,7 +5728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5779,7 +5766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5817,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5855,7 +5842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5890,7 +5877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5928,7 +5915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5963,7 +5950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5998,7 +5985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6033,7 +6020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6068,7 +6055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6103,7 +6090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6138,7 +6125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6173,7 +6160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6208,7 +6195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6243,7 +6230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6278,7 +6265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6313,7 +6300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6348,7 +6335,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6383,7 +6370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6418,7 +6405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6453,7 +6440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6488,7 +6475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6523,7 +6510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6558,7 +6545,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6593,7 +6580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6628,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6663,7 +6650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6698,7 +6685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6733,7 +6720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6768,7 +6755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6803,7 +6790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6838,7 +6825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6873,7 +6860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6908,7 +6895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6943,7 +6930,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6978,7 +6965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7013,7 +7000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7048,7 +7035,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7083,7 +7070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7118,7 +7105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7153,7 +7140,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7188,7 +7175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7223,7 +7210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7258,7 +7245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7293,7 +7280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7328,7 +7315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7363,7 +7350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7371,19 +7358,19 @@
         <v>271</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F103" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G103" t="s">
         <v>260</v>
       </c>
       <c r="H103" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -7392,33 +7379,33 @@
         <v>18</v>
       </c>
       <c r="L103">
-        <v>1383</v>
+        <v>93</v>
       </c>
       <c r="M103">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>275</v>
+      </c>
+      <c r="F104" t="s">
         <v>272</v>
       </c>
-      <c r="C104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>258</v>
-      </c>
-      <c r="F104" t="s">
-        <v>273</v>
-      </c>
       <c r="G104" t="s">
         <v>260</v>
       </c>
       <c r="H104" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -7427,33 +7414,33 @@
         <v>18</v>
       </c>
       <c r="L104">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="M104">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F105" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G105" t="s">
         <v>260</v>
       </c>
       <c r="H105" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -7462,33 +7449,33 @@
         <v>18</v>
       </c>
       <c r="L105">
-        <v>210</v>
+        <v>819</v>
       </c>
       <c r="M105">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G106" t="s">
         <v>260</v>
       </c>
       <c r="H106" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -7497,33 +7484,33 @@
         <v>18</v>
       </c>
       <c r="L106">
-        <v>819</v>
+        <v>406</v>
       </c>
       <c r="M106">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G107" t="s">
         <v>260</v>
       </c>
       <c r="H107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -7532,33 +7519,33 @@
         <v>18</v>
       </c>
       <c r="L107">
-        <v>406</v>
+        <v>196</v>
       </c>
       <c r="M107">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C108" t="s">
         <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G108" t="s">
         <v>260</v>
       </c>
       <c r="H108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -7567,33 +7554,33 @@
         <v>18</v>
       </c>
       <c r="L108">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="M108">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G109" t="s">
         <v>260</v>
       </c>
       <c r="H109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -7602,33 +7589,33 @@
         <v>18</v>
       </c>
       <c r="L109">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="M109">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E110" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G110" t="s">
         <v>260</v>
       </c>
       <c r="H110" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -7637,33 +7624,33 @@
         <v>18</v>
       </c>
       <c r="L110">
-        <v>68</v>
+        <v>832</v>
       </c>
       <c r="M110">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G111" t="s">
         <v>260</v>
       </c>
       <c r="H111" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -7672,33 +7659,33 @@
         <v>18</v>
       </c>
       <c r="L111">
-        <v>832</v>
+        <v>414</v>
       </c>
       <c r="M111">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G112" t="s">
         <v>260</v>
       </c>
       <c r="H112" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -7707,13 +7694,13 @@
         <v>18</v>
       </c>
       <c r="L112">
-        <v>414</v>
+        <v>239</v>
       </c>
       <c r="M112">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7721,19 +7708,19 @@
         <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G113" t="s">
         <v>260</v>
       </c>
       <c r="H113" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -7742,33 +7729,33 @@
         <v>18</v>
       </c>
       <c r="L113">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="M113">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G114" t="s">
         <v>260</v>
       </c>
       <c r="H114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -7777,33 +7764,33 @@
         <v>18</v>
       </c>
       <c r="L114">
-        <v>53</v>
+        <v>507</v>
       </c>
       <c r="M114">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G115" t="s">
         <v>260</v>
       </c>
       <c r="H115" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -7812,33 +7799,33 @@
         <v>18</v>
       </c>
       <c r="L115">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="M115">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G116" t="s">
         <v>260</v>
       </c>
       <c r="H116" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -7847,33 +7834,33 @@
         <v>18</v>
       </c>
       <c r="L116">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M116">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="F117" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="G117" t="s">
         <v>260</v>
       </c>
       <c r="H117" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -7882,33 +7869,33 @@
         <v>18</v>
       </c>
       <c r="L117">
-        <v>101</v>
+        <v>424</v>
       </c>
       <c r="M117">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" t="s">
+        <v>315</v>
+      </c>
+      <c r="F118" t="s">
         <v>312</v>
       </c>
-      <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" t="s">
-        <v>313</v>
-      </c>
       <c r="G118" t="s">
         <v>260</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -7917,33 +7904,33 @@
         <v>18</v>
       </c>
       <c r="L118">
-        <v>424</v>
+        <v>682</v>
       </c>
       <c r="M118">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C119" t="s">
         <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G119" t="s">
         <v>260</v>
       </c>
       <c r="H119" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -7952,33 +7939,33 @@
         <v>18</v>
       </c>
       <c r="L119">
-        <v>682</v>
+        <v>218</v>
       </c>
       <c r="M119">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C120" t="s">
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G120" t="s">
         <v>260</v>
       </c>
       <c r="H120" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -7987,33 +7974,33 @@
         <v>18</v>
       </c>
       <c r="L120">
-        <v>218</v>
+        <v>1111</v>
       </c>
       <c r="M120">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C121" t="s">
         <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G121" t="s">
         <v>260</v>
       </c>
       <c r="H121" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -8022,33 +8009,33 @@
         <v>18</v>
       </c>
       <c r="L121">
-        <v>1111</v>
+        <v>178</v>
       </c>
       <c r="M121">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G122" t="s">
         <v>260</v>
       </c>
       <c r="H122" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -8057,33 +8044,33 @@
         <v>18</v>
       </c>
       <c r="L122">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="M122">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G123" t="s">
         <v>260</v>
       </c>
       <c r="H123" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -8092,33 +8079,33 @@
         <v>18</v>
       </c>
       <c r="L123">
-        <v>355</v>
+        <v>651</v>
       </c>
       <c r="M123">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C124" t="s">
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G124" t="s">
         <v>260</v>
       </c>
       <c r="H124" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -8127,33 +8114,33 @@
         <v>18</v>
       </c>
       <c r="L124">
-        <v>651</v>
+        <v>115</v>
       </c>
       <c r="M124">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
         <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G125" t="s">
         <v>260</v>
       </c>
       <c r="H125" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -8162,33 +8149,33 @@
         <v>18</v>
       </c>
       <c r="L125">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M125">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C126" t="s">
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G126" t="s">
         <v>260</v>
       </c>
       <c r="H126" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -8197,34 +8184,34 @@
         <v>18</v>
       </c>
       <c r="L126">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M126">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C127" t="s">
         <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F127" t="s">
+        <v>312</v>
+      </c>
+      <c r="G127" t="s">
+        <v>260</v>
+      </c>
+      <c r="H127" t="s">
         <v>313</v>
       </c>
-      <c r="G127" t="s">
-        <v>260</v>
-      </c>
-      <c r="H127" t="s">
-        <v>341</v>
-      </c>
       <c r="I127" t="s">
         <v>17</v>
       </c>
@@ -8232,33 +8219,33 @@
         <v>18</v>
       </c>
       <c r="L127">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="M127">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
         <v>41</v>
       </c>
       <c r="E128" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G128" t="s">
         <v>260</v>
       </c>
       <c r="H128" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -8267,33 +8254,33 @@
         <v>18</v>
       </c>
       <c r="L128">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="M128">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C129" t="s">
         <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G129" t="s">
         <v>260</v>
       </c>
       <c r="H129" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -8302,33 +8289,33 @@
         <v>18</v>
       </c>
       <c r="L129">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="M129">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
         <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G130" t="s">
         <v>260</v>
       </c>
       <c r="H130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -8337,33 +8324,33 @@
         <v>18</v>
       </c>
       <c r="L130">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="M130">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G131" t="s">
         <v>260</v>
       </c>
       <c r="H131" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -8372,34 +8359,34 @@
         <v>18</v>
       </c>
       <c r="L131">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M131">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F132" t="s">
+        <v>312</v>
+      </c>
+      <c r="G132" t="s">
+        <v>260</v>
+      </c>
+      <c r="H132" t="s">
         <v>313</v>
       </c>
-      <c r="G132" t="s">
-        <v>260</v>
-      </c>
-      <c r="H132" t="s">
-        <v>355</v>
-      </c>
       <c r="I132" t="s">
         <v>17</v>
       </c>
@@ -8407,13 +8394,13 @@
         <v>18</v>
       </c>
       <c r="L132">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="M132">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8424,16 +8411,16 @@
         <v>41</v>
       </c>
       <c r="E133" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G133" t="s">
         <v>260</v>
       </c>
       <c r="H133" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -8442,34 +8429,34 @@
         <v>18</v>
       </c>
       <c r="L133">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="M133">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F134" t="s">
+        <v>312</v>
+      </c>
+      <c r="G134" t="s">
+        <v>260</v>
+      </c>
+      <c r="H134" t="s">
         <v>313</v>
       </c>
-      <c r="G134" t="s">
-        <v>260</v>
-      </c>
-      <c r="H134" t="s">
-        <v>359</v>
-      </c>
       <c r="I134" t="s">
         <v>17</v>
       </c>
@@ -8477,34 +8464,34 @@
         <v>18</v>
       </c>
       <c r="L134">
-        <v>266</v>
+        <v>566</v>
       </c>
       <c r="M134">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
         <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
+        <v>312</v>
+      </c>
+      <c r="G135" t="s">
+        <v>260</v>
+      </c>
+      <c r="H135" t="s">
         <v>313</v>
       </c>
-      <c r="G135" t="s">
-        <v>260</v>
-      </c>
-      <c r="H135" t="s">
-        <v>314</v>
-      </c>
       <c r="I135" t="s">
         <v>17</v>
       </c>
@@ -8512,34 +8499,34 @@
         <v>18</v>
       </c>
       <c r="L135">
-        <v>566</v>
+        <v>129</v>
       </c>
       <c r="M135">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C136" t="s">
         <v>41</v>
       </c>
       <c r="E136" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F136" t="s">
+        <v>312</v>
+      </c>
+      <c r="G136" t="s">
+        <v>260</v>
+      </c>
+      <c r="H136" t="s">
         <v>313</v>
       </c>
-      <c r="G136" t="s">
-        <v>260</v>
-      </c>
-      <c r="H136" t="s">
-        <v>314</v>
-      </c>
       <c r="I136" t="s">
         <v>17</v>
       </c>
@@ -8547,33 +8534,33 @@
         <v>18</v>
       </c>
       <c r="L136">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="M136">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C137" t="s">
         <v>41</v>
       </c>
       <c r="E137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G137" t="s">
         <v>260</v>
       </c>
       <c r="H137" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -8582,33 +8569,33 @@
         <v>18</v>
       </c>
       <c r="L137">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="M137">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
         <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F138" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="G138" t="s">
         <v>260</v>
       </c>
       <c r="H138" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
@@ -8617,33 +8604,33 @@
         <v>18</v>
       </c>
       <c r="L138">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="M138">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
         <v>41</v>
       </c>
       <c r="E139" t="s">
+        <v>373</v>
+      </c>
+      <c r="F139" t="s">
         <v>370</v>
       </c>
-      <c r="F139" t="s">
-        <v>371</v>
-      </c>
       <c r="G139" t="s">
         <v>260</v>
       </c>
       <c r="H139" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -8652,33 +8639,33 @@
         <v>18</v>
       </c>
       <c r="L139">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M139">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C140" t="s">
         <v>41</v>
       </c>
       <c r="E140" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G140" t="s">
         <v>260</v>
       </c>
       <c r="H140" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -8687,33 +8674,33 @@
         <v>18</v>
       </c>
       <c r="L140">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="M140">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C141" t="s">
         <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G141" t="s">
         <v>260</v>
       </c>
       <c r="H141" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -8722,33 +8709,33 @@
         <v>18</v>
       </c>
       <c r="L141">
-        <v>119</v>
+        <v>493</v>
       </c>
       <c r="M141">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G142" t="s">
         <v>260</v>
       </c>
       <c r="H142" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -8757,33 +8744,33 @@
         <v>18</v>
       </c>
       <c r="L142">
-        <v>493</v>
+        <v>101</v>
       </c>
       <c r="M142">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E143" t="s">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G143" t="s">
         <v>260</v>
       </c>
       <c r="H143" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -8792,33 +8779,33 @@
         <v>18</v>
       </c>
       <c r="L143">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M143">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>258</v>
+        <v>387</v>
       </c>
       <c r="F144" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G144" t="s">
         <v>260</v>
       </c>
       <c r="H144" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -8827,33 +8814,33 @@
         <v>18</v>
       </c>
       <c r="L144">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="M144">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E145" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G145" t="s">
         <v>260</v>
       </c>
       <c r="H145" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -8862,33 +8849,33 @@
         <v>18</v>
       </c>
       <c r="L145">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="M145">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
       </c>
       <c r="E146" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G146" t="s">
         <v>260</v>
       </c>
       <c r="H146" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -8897,33 +8884,33 @@
         <v>18</v>
       </c>
       <c r="L146">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="M146">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G147" t="s">
         <v>260</v>
       </c>
       <c r="H147" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -8932,33 +8919,33 @@
         <v>18</v>
       </c>
       <c r="L147">
-        <v>199</v>
+        <v>1005</v>
       </c>
       <c r="M147">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G148" t="s">
         <v>260</v>
       </c>
       <c r="H148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -8967,33 +8954,33 @@
         <v>18</v>
       </c>
       <c r="L148">
-        <v>1005</v>
+        <v>101</v>
       </c>
       <c r="M148">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G149" t="s">
         <v>260</v>
       </c>
       <c r="H149" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -9002,33 +8989,33 @@
         <v>18</v>
       </c>
       <c r="L149">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M149">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="F150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G150" t="s">
         <v>260</v>
       </c>
       <c r="H150" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -9037,33 +9024,33 @@
         <v>18</v>
       </c>
       <c r="L150">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="M150">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G151" t="s">
         <v>260</v>
       </c>
       <c r="H151" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="I151" t="s">
         <v>17</v>
@@ -9072,33 +9059,33 @@
         <v>18</v>
       </c>
       <c r="L151">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="M151">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F152" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G152" t="s">
         <v>260</v>
       </c>
       <c r="H152" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -9107,33 +9094,33 @@
         <v>18</v>
       </c>
       <c r="L152">
-        <v>399</v>
+        <v>143</v>
       </c>
       <c r="M152">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
+        <v>258</v>
+      </c>
+      <c r="F153" t="s">
         <v>408</v>
       </c>
-      <c r="F153" t="s">
-        <v>409</v>
-      </c>
       <c r="G153" t="s">
         <v>260</v>
       </c>
       <c r="H153" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -9142,33 +9129,33 @@
         <v>18</v>
       </c>
       <c r="L153">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="M153">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E154" t="s">
         <v>258</v>
       </c>
       <c r="F154" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G154" t="s">
         <v>260</v>
       </c>
       <c r="H154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -9177,13 +9164,13 @@
         <v>18</v>
       </c>
       <c r="L154">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="M154">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9194,16 +9181,16 @@
         <v>41</v>
       </c>
       <c r="E155" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="F155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G155" t="s">
         <v>260</v>
       </c>
       <c r="H155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I155" t="s">
         <v>17</v>
@@ -9212,13 +9199,13 @@
         <v>18</v>
       </c>
       <c r="L155">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M155">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9229,16 +9216,16 @@
         <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="F156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G156" t="s">
         <v>260</v>
       </c>
       <c r="H156" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -9247,33 +9234,33 @@
         <v>18</v>
       </c>
       <c r="L156">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="M156">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="E157" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G157" t="s">
         <v>260</v>
       </c>
       <c r="H157" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -9282,33 +9269,33 @@
         <v>18</v>
       </c>
       <c r="L157">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="M157">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C158" t="s">
         <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>419</v>
+        <v>258</v>
       </c>
       <c r="F158" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G158" t="s">
         <v>260</v>
       </c>
       <c r="H158" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -9317,13 +9304,13 @@
         <v>18</v>
       </c>
       <c r="L158">
-        <v>379</v>
+        <v>126</v>
       </c>
       <c r="M158">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9337,13 +9324,13 @@
         <v>258</v>
       </c>
       <c r="F159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G159" t="s">
         <v>260</v>
       </c>
       <c r="H159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -9352,13 +9339,13 @@
         <v>18</v>
       </c>
       <c r="L159">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="M159">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9366,19 +9353,19 @@
         <v>422</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
         <v>258</v>
       </c>
       <c r="F160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G160" t="s">
         <v>260</v>
       </c>
       <c r="H160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -9387,13 +9374,13 @@
         <v>18</v>
       </c>
       <c r="L160">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="M160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9407,13 +9394,13 @@
         <v>258</v>
       </c>
       <c r="F161" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G161" t="s">
         <v>260</v>
       </c>
       <c r="H161" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -9422,13 +9409,13 @@
         <v>18</v>
       </c>
       <c r="L161">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="M161">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9436,19 +9423,19 @@
         <v>424</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E162" t="s">
         <v>258</v>
       </c>
       <c r="F162" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G162" t="s">
         <v>260</v>
       </c>
       <c r="H162" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -9457,13 +9444,13 @@
         <v>18</v>
       </c>
       <c r="L162">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M162">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9471,19 +9458,19 @@
         <v>425</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>258</v>
+        <v>426</v>
       </c>
       <c r="F163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G163" t="s">
         <v>260</v>
       </c>
       <c r="H163" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -9492,33 +9479,33 @@
         <v>18</v>
       </c>
       <c r="L163">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="M163">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F164" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G164" t="s">
         <v>260</v>
       </c>
       <c r="H164" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -9527,33 +9514,33 @@
         <v>18</v>
       </c>
       <c r="L164">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="M164">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F165" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G165" t="s">
         <v>260</v>
       </c>
       <c r="H165" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -9562,33 +9549,33 @@
         <v>18</v>
       </c>
       <c r="L165">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M165">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G166" t="s">
         <v>260</v>
       </c>
       <c r="H166" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -9597,33 +9584,33 @@
         <v>18</v>
       </c>
       <c r="L166">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M166">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C167" t="s">
         <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F167" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G167" t="s">
         <v>260</v>
       </c>
       <c r="H167" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -9632,33 +9619,33 @@
         <v>18</v>
       </c>
       <c r="L167">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M167">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E168" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G168" t="s">
         <v>260</v>
       </c>
       <c r="H168" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -9667,33 +9654,33 @@
         <v>18</v>
       </c>
       <c r="L168">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M168">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F169" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G169" t="s">
         <v>260</v>
       </c>
       <c r="H169" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>
@@ -9702,33 +9689,33 @@
         <v>18</v>
       </c>
       <c r="L169">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M169">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F170" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G170" t="s">
         <v>260</v>
       </c>
       <c r="H170" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -9737,33 +9724,33 @@
         <v>18</v>
       </c>
       <c r="L170">
-        <v>51</v>
+        <v>624</v>
       </c>
       <c r="M170">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F171" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G171" t="s">
         <v>260</v>
       </c>
       <c r="H171" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -9772,33 +9759,33 @@
         <v>18</v>
       </c>
       <c r="L171">
-        <v>624</v>
+        <v>94</v>
       </c>
       <c r="M171">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G172" t="s">
         <v>260</v>
       </c>
       <c r="H172" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I172" t="s">
         <v>17</v>
@@ -9807,33 +9794,33 @@
         <v>18</v>
       </c>
       <c r="L172">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M172">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F173" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G173" t="s">
         <v>260</v>
       </c>
       <c r="H173" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I173" t="s">
         <v>17</v>
@@ -9842,33 +9829,33 @@
         <v>18</v>
       </c>
       <c r="L173">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="M173">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F174" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G174" t="s">
         <v>260</v>
       </c>
       <c r="H174" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I174" t="s">
         <v>17</v>
@@ -9877,33 +9864,33 @@
         <v>18</v>
       </c>
       <c r="L174">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="M174">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
+        <v>463</v>
+      </c>
+      <c r="F175" t="s">
         <v>460</v>
       </c>
-      <c r="F175" t="s">
-        <v>461</v>
-      </c>
       <c r="G175" t="s">
         <v>260</v>
       </c>
       <c r="H175" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I175" t="s">
         <v>17</v>
@@ -9912,33 +9899,33 @@
         <v>18</v>
       </c>
       <c r="L175">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="M175">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G176" t="s">
         <v>260</v>
       </c>
       <c r="H176" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I176" t="s">
         <v>17</v>
@@ -9947,33 +9934,33 @@
         <v>18</v>
       </c>
       <c r="L176">
-        <v>369</v>
+        <v>95</v>
       </c>
       <c r="M176">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G177" t="s">
         <v>260</v>
       </c>
       <c r="H177" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I177" t="s">
         <v>17</v>
@@ -9982,13 +9969,13 @@
         <v>18</v>
       </c>
       <c r="L177">
-        <v>95</v>
+        <v>774</v>
       </c>
       <c r="M177">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9999,16 +9986,16 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>470</v>
       </c>
       <c r="F178" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G178" t="s">
         <v>260</v>
       </c>
       <c r="H178" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="I178" t="s">
         <v>17</v>
@@ -10017,33 +10004,33 @@
         <v>18</v>
       </c>
       <c r="L178">
-        <v>774</v>
+        <v>266</v>
       </c>
       <c r="M178">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F179" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G179" t="s">
         <v>260</v>
       </c>
       <c r="H179" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="I179" t="s">
         <v>17</v>
@@ -10052,13 +10039,13 @@
         <v>18</v>
       </c>
       <c r="L179">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="M179">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10069,17 +10056,17 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
+        <v>463</v>
+      </c>
+      <c r="F180" t="s">
+        <v>460</v>
+      </c>
+      <c r="G180" t="s">
+        <v>260</v>
+      </c>
+      <c r="H180" t="s">
         <v>464</v>
       </c>
-      <c r="F180" t="s">
-        <v>461</v>
-      </c>
-      <c r="G180" t="s">
-        <v>260</v>
-      </c>
-      <c r="H180" t="s">
-        <v>465</v>
-      </c>
       <c r="I180" t="s">
         <v>17</v>
       </c>
@@ -10087,13 +10074,13 @@
         <v>18</v>
       </c>
       <c r="L180">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="M180">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10104,16 +10091,16 @@
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F181" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G181" t="s">
         <v>260</v>
       </c>
       <c r="H181" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="I181" t="s">
         <v>17</v>
@@ -10122,48 +10109,48 @@
         <v>18</v>
       </c>
       <c r="L181">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="M181">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C182" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" t="s">
+        <v>258</v>
+      </c>
+      <c r="F182" t="s">
+        <v>460</v>
+      </c>
+      <c r="G182" t="s">
+        <v>260</v>
+      </c>
+      <c r="H182" t="s">
+        <v>464</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" t="s">
+        <v>18</v>
+      </c>
+      <c r="L182">
+        <v>62</v>
+      </c>
+      <c r="M182">
         <v>12</v>
       </c>
-      <c r="E182" t="s">
-        <v>476</v>
-      </c>
-      <c r="F182" t="s">
-        <v>461</v>
-      </c>
-      <c r="G182" t="s">
-        <v>260</v>
-      </c>
-      <c r="H182" t="s">
-        <v>477</v>
-      </c>
-      <c r="I182" t="s">
-        <v>17</v>
-      </c>
-      <c r="J182" t="s">
-        <v>18</v>
-      </c>
-      <c r="L182">
-        <v>64</v>
-      </c>
-      <c r="M182">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10171,19 +10158,19 @@
         <v>478</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>258</v>
+        <v>479</v>
       </c>
       <c r="F183" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G183" t="s">
         <v>260</v>
       </c>
       <c r="H183" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="I183" t="s">
         <v>17</v>
@@ -10192,33 +10179,33 @@
         <v>18</v>
       </c>
       <c r="L183">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M183">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F184" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G184" t="s">
         <v>260</v>
       </c>
       <c r="H184" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I184" t="s">
         <v>17</v>
@@ -10227,33 +10214,33 @@
         <v>18</v>
       </c>
       <c r="L184">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M184">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F185" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G185" t="s">
         <v>260</v>
       </c>
       <c r="H185" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I185" t="s">
         <v>17</v>
@@ -10262,33 +10249,33 @@
         <v>18</v>
       </c>
       <c r="L185">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="M185">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G186" t="s">
         <v>260</v>
       </c>
       <c r="H186" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I186" t="s">
         <v>17</v>
@@ -10297,33 +10284,33 @@
         <v>18</v>
       </c>
       <c r="L186">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M186">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E187" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F187" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G187" t="s">
         <v>260</v>
       </c>
       <c r="H187" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I187" t="s">
         <v>17</v>
@@ -10332,33 +10319,33 @@
         <v>18</v>
       </c>
       <c r="L187">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="M187">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E188" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F188" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G188" t="s">
         <v>260</v>
       </c>
       <c r="H188" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -10367,33 +10354,33 @@
         <v>18</v>
       </c>
       <c r="L188">
-        <v>155</v>
+        <v>501</v>
       </c>
       <c r="M188">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E189" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F189" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G189" t="s">
         <v>260</v>
       </c>
       <c r="H189" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -10402,33 +10389,33 @@
         <v>18</v>
       </c>
       <c r="L189">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="M189">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C190" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F190" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G190" t="s">
         <v>260</v>
       </c>
       <c r="H190" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -10437,33 +10424,33 @@
         <v>18</v>
       </c>
       <c r="L190">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="M190">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
       </c>
       <c r="E191" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F191" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="G191" t="s">
         <v>260</v>
       </c>
       <c r="H191" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -10472,13 +10459,13 @@
         <v>18</v>
       </c>
       <c r="L191">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="M191">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10486,19 +10473,19 @@
         <v>505</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F192" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G192" t="s">
         <v>260</v>
       </c>
       <c r="H192" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I192" t="s">
         <v>17</v>
@@ -10507,33 +10494,30 @@
         <v>18</v>
       </c>
       <c r="L192">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M192">
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>506</v>
-      </c>
-      <c r="C193" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="E193" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G193" t="s">
-        <v>260</v>
+        <v>511</v>
       </c>
       <c r="H193" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="I193" t="s">
         <v>17</v>
@@ -10542,30 +10526,33 @@
         <v>18</v>
       </c>
       <c r="L193">
-        <v>50</v>
+        <v>1502</v>
       </c>
       <c r="M193">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>509</v>
+        <v>513</v>
+      </c>
+      <c r="C194" t="s">
+        <v>41</v>
       </c>
       <c r="E194" t="s">
+        <v>514</v>
+      </c>
+      <c r="F194" t="s">
         <v>510</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>511</v>
       </c>
-      <c r="G194" t="s">
-        <v>512</v>
-      </c>
       <c r="H194" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -10574,33 +10561,33 @@
         <v>18</v>
       </c>
       <c r="L194">
-        <v>1502</v>
+        <v>599</v>
       </c>
       <c r="M194">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C195" t="s">
         <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F195" t="s">
+        <v>510</v>
+      </c>
+      <c r="G195" t="s">
         <v>511</v>
       </c>
-      <c r="G195" t="s">
-        <v>512</v>
-      </c>
       <c r="H195" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -10609,33 +10596,30 @@
         <v>18</v>
       </c>
       <c r="L195">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="M195">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>517</v>
-      </c>
-      <c r="C196" t="s">
-        <v>41</v>
+        <v>519</v>
       </c>
       <c r="E196" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F196" t="s">
+        <v>510</v>
+      </c>
+      <c r="G196" t="s">
         <v>511</v>
       </c>
-      <c r="G196" t="s">
-        <v>512</v>
-      </c>
       <c r="H196" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I196" t="s">
         <v>17</v>
@@ -10644,30 +10628,33 @@
         <v>18</v>
       </c>
       <c r="L196">
-        <v>698</v>
+        <v>944</v>
       </c>
       <c r="M196">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
       </c>
       <c r="E197" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F197" t="s">
+        <v>510</v>
+      </c>
+      <c r="G197" t="s">
         <v>511</v>
       </c>
-      <c r="G197" t="s">
-        <v>512</v>
-      </c>
       <c r="H197" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
@@ -10676,33 +10663,30 @@
         <v>18</v>
       </c>
       <c r="L197">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="M197">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>523</v>
-      </c>
-      <c r="C198" t="s">
-        <v>41</v>
+        <v>525</v>
       </c>
       <c r="E198" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F198" t="s">
+        <v>510</v>
+      </c>
+      <c r="G198" t="s">
         <v>511</v>
       </c>
-      <c r="G198" t="s">
-        <v>512</v>
-      </c>
       <c r="H198" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I198" t="s">
         <v>17</v>
@@ -10711,30 +10695,33 @@
         <v>18</v>
       </c>
       <c r="L198">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="M198">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>526</v>
+        <v>528</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
       </c>
       <c r="E199" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F199" t="s">
+        <v>510</v>
+      </c>
+      <c r="G199" t="s">
         <v>511</v>
       </c>
-      <c r="G199" t="s">
-        <v>512</v>
-      </c>
       <c r="H199" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I199" t="s">
         <v>17</v>
@@ -10743,33 +10730,33 @@
         <v>18</v>
       </c>
       <c r="L199">
-        <v>860</v>
+        <v>893</v>
       </c>
       <c r="M199">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="E200" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F200" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>512</v>
+        <v>260</v>
       </c>
       <c r="H200" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I200" t="s">
         <v>17</v>
@@ -10778,24 +10765,18 @@
         <v>18</v>
       </c>
       <c r="L200">
-        <v>893</v>
+        <v>1140</v>
       </c>
       <c r="M200">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>532</v>
-      </c>
-      <c r="C201" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F201" t="s">
         <v>26</v>
@@ -10804,7 +10785,7 @@
         <v>260</v>
       </c>
       <c r="H201" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -10813,18 +10794,24 @@
         <v>18</v>
       </c>
       <c r="L201">
-        <v>1140</v>
+        <v>937</v>
       </c>
       <c r="M201">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="C202" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>537</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -10833,7 +10820,7 @@
         <v>260</v>
       </c>
       <c r="H202" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I202" t="s">
         <v>17</v>
@@ -10842,24 +10829,24 @@
         <v>18</v>
       </c>
       <c r="L202">
-        <v>937</v>
+        <v>682</v>
       </c>
       <c r="M202">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>539</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="E203" t="s">
         <v>537</v>
-      </c>
-      <c r="C203" t="s">
-        <v>41</v>
-      </c>
-      <c r="E203" t="s">
-        <v>538</v>
       </c>
       <c r="F203" t="s">
         <v>26</v>
@@ -10868,7 +10855,7 @@
         <v>260</v>
       </c>
       <c r="H203" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I203" t="s">
         <v>17</v>
@@ -10877,24 +10864,24 @@
         <v>18</v>
       </c>
       <c r="L203">
-        <v>682</v>
+        <v>624</v>
       </c>
       <c r="M203">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C204" t="s">
         <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -10903,7 +10890,7 @@
         <v>260</v>
       </c>
       <c r="H204" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I204" t="s">
         <v>17</v>
@@ -10912,24 +10899,24 @@
         <v>18</v>
       </c>
       <c r="L204">
-        <v>624</v>
+        <v>1725</v>
       </c>
       <c r="M204">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C205" t="s">
         <v>41</v>
       </c>
       <c r="E205" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -10938,7 +10925,7 @@
         <v>260</v>
       </c>
       <c r="H205" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I205" t="s">
         <v>17</v>
@@ -10947,24 +10934,24 @@
         <v>18</v>
       </c>
       <c r="L205">
-        <v>1725</v>
+        <v>697</v>
       </c>
       <c r="M205">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C206" t="s">
         <v>41</v>
       </c>
       <c r="E206" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -10973,7 +10960,7 @@
         <v>260</v>
       </c>
       <c r="H206" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I206" t="s">
         <v>17</v>
@@ -10982,24 +10969,24 @@
         <v>18</v>
       </c>
       <c r="L206">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="M206">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -11008,7 +10995,7 @@
         <v>260</v>
       </c>
       <c r="H207" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I207" t="s">
         <v>17</v>
@@ -11017,24 +11004,24 @@
         <v>18</v>
       </c>
       <c r="L207">
-        <v>737</v>
+        <v>1232</v>
       </c>
       <c r="M207">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E208" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F208" t="s">
         <v>26</v>
@@ -11043,7 +11030,7 @@
         <v>260</v>
       </c>
       <c r="H208" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
@@ -11052,24 +11039,24 @@
         <v>18</v>
       </c>
       <c r="L208">
-        <v>1232</v>
+        <v>654</v>
       </c>
       <c r="M208">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
       </c>
       <c r="E209" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F209" t="s">
         <v>26</v>
@@ -11078,7 +11065,7 @@
         <v>260</v>
       </c>
       <c r="H209" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I209" t="s">
         <v>17</v>
@@ -11087,24 +11074,24 @@
         <v>18</v>
       </c>
       <c r="L209">
-        <v>654</v>
+        <v>878</v>
       </c>
       <c r="M209">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -11113,7 +11100,7 @@
         <v>260</v>
       </c>
       <c r="H210" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
@@ -11122,24 +11109,24 @@
         <v>18</v>
       </c>
       <c r="L210">
-        <v>878</v>
+        <v>572</v>
       </c>
       <c r="M210">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C211" t="s">
         <v>41</v>
       </c>
       <c r="E211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F211" t="s">
         <v>26</v>
@@ -11148,7 +11135,7 @@
         <v>260</v>
       </c>
       <c r="H211" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
@@ -11157,24 +11144,24 @@
         <v>18</v>
       </c>
       <c r="L211">
-        <v>572</v>
+        <v>658</v>
       </c>
       <c r="M211">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C212" t="s">
         <v>41</v>
       </c>
       <c r="E212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F212" t="s">
         <v>26</v>
@@ -11183,7 +11170,7 @@
         <v>260</v>
       </c>
       <c r="H212" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
@@ -11192,24 +11179,24 @@
         <v>18</v>
       </c>
       <c r="L212">
-        <v>658</v>
+        <v>1068</v>
       </c>
       <c r="M212">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C213" t="s">
         <v>41</v>
       </c>
       <c r="E213" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -11218,7 +11205,7 @@
         <v>260</v>
       </c>
       <c r="H213" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I213" t="s">
         <v>17</v>
@@ -11227,24 +11214,24 @@
         <v>18</v>
       </c>
       <c r="L213">
-        <v>1468</v>
+        <v>552</v>
       </c>
       <c r="M213">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="F214" t="s">
         <v>26</v>
@@ -11253,7 +11240,7 @@
         <v>260</v>
       </c>
       <c r="H214" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
@@ -11262,24 +11249,24 @@
         <v>18</v>
       </c>
       <c r="L214">
-        <v>1219</v>
+        <v>872</v>
       </c>
       <c r="M214">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C215" t="s">
         <v>41</v>
       </c>
       <c r="E215" t="s">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="F215" t="s">
         <v>26</v>
@@ -11288,7 +11275,7 @@
         <v>260</v>
       </c>
       <c r="H215" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
@@ -11297,24 +11284,24 @@
         <v>18</v>
       </c>
       <c r="L215">
-        <v>1068</v>
+        <v>622</v>
       </c>
       <c r="M215">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="E216" t="s">
-        <v>567</v>
+        <v>258</v>
       </c>
       <c r="F216" t="s">
         <v>26</v>
@@ -11323,7 +11310,7 @@
         <v>260</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I216" t="s">
         <v>17</v>
@@ -11332,21 +11319,21 @@
         <v>18</v>
       </c>
       <c r="L216">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="M216">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E217" t="s">
         <v>258</v>
@@ -11358,7 +11345,7 @@
         <v>260</v>
       </c>
       <c r="H217" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
@@ -11367,21 +11354,21 @@
         <v>18</v>
       </c>
       <c r="L217">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="M217">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E218" t="s">
         <v>258</v>
@@ -11393,7 +11380,7 @@
         <v>260</v>
       </c>
       <c r="H218" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I218" t="s">
         <v>17</v>
@@ -11402,24 +11389,24 @@
         <v>18</v>
       </c>
       <c r="L218">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="M218">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C219" t="s">
         <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>258</v>
+        <v>575</v>
       </c>
       <c r="F219" t="s">
         <v>26</v>
@@ -11428,7 +11415,7 @@
         <v>260</v>
       </c>
       <c r="H219" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I219" t="s">
         <v>17</v>
@@ -11437,24 +11424,24 @@
         <v>18</v>
       </c>
       <c r="L219">
-        <v>606</v>
+        <v>730</v>
       </c>
       <c r="M219">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C220" t="s">
         <v>41</v>
       </c>
       <c r="E220" t="s">
-        <v>258</v>
+        <v>578</v>
       </c>
       <c r="F220" t="s">
         <v>26</v>
@@ -11463,7 +11450,7 @@
         <v>260</v>
       </c>
       <c r="H220" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
@@ -11472,21 +11459,21 @@
         <v>18</v>
       </c>
       <c r="L220">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="M220">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E221" t="s">
         <v>258</v>
@@ -11498,7 +11485,7 @@
         <v>260</v>
       </c>
       <c r="H221" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
@@ -11510,21 +11497,21 @@
         <v>714</v>
       </c>
       <c r="M221">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
       </c>
       <c r="E222" t="s">
-        <v>580</v>
+        <v>258</v>
       </c>
       <c r="F222" t="s">
         <v>26</v>
@@ -11533,7 +11520,7 @@
         <v>260</v>
       </c>
       <c r="H222" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I222" t="s">
         <v>17</v>
@@ -11542,24 +11529,24 @@
         <v>18</v>
       </c>
       <c r="L222">
-        <v>730</v>
+        <v>603</v>
       </c>
       <c r="M222">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C223" t="s">
         <v>41</v>
       </c>
       <c r="E223" t="s">
-        <v>583</v>
+        <v>258</v>
       </c>
       <c r="F223" t="s">
         <v>26</v>
@@ -11568,7 +11555,7 @@
         <v>260</v>
       </c>
       <c r="H223" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
@@ -11577,18 +11564,18 @@
         <v>18</v>
       </c>
       <c r="L223">
-        <v>784</v>
+        <v>1315</v>
       </c>
       <c r="M223">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C224" t="s">
         <v>41</v>
@@ -11603,7 +11590,7 @@
         <v>260</v>
       </c>
       <c r="H224" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
@@ -11612,18 +11599,18 @@
         <v>18</v>
       </c>
       <c r="L224">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="M224">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C225" t="s">
         <v>41</v>
@@ -11638,7 +11625,7 @@
         <v>260</v>
       </c>
       <c r="H225" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -11647,24 +11634,24 @@
         <v>18</v>
       </c>
       <c r="L225">
-        <v>603</v>
+        <v>481</v>
       </c>
       <c r="M225">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
         <v>41</v>
       </c>
       <c r="E226" t="s">
-        <v>258</v>
+        <v>582</v>
       </c>
       <c r="F226" t="s">
         <v>26</v>
@@ -11673,7 +11660,7 @@
         <v>260</v>
       </c>
       <c r="H226" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I226" t="s">
         <v>17</v>
@@ -11682,24 +11669,24 @@
         <v>18</v>
       </c>
       <c r="L226">
-        <v>1315</v>
+        <v>505</v>
       </c>
       <c r="M226">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C227" t="s">
         <v>41</v>
       </c>
       <c r="E227" t="s">
-        <v>258</v>
+        <v>594</v>
       </c>
       <c r="F227" t="s">
         <v>26</v>
@@ -11708,7 +11695,7 @@
         <v>260</v>
       </c>
       <c r="H227" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I227" t="s">
         <v>17</v>
@@ -11717,18 +11704,18 @@
         <v>18</v>
       </c>
       <c r="L227">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="M227">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -11743,7 +11730,7 @@
         <v>260</v>
       </c>
       <c r="H228" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
@@ -11752,24 +11739,24 @@
         <v>18</v>
       </c>
       <c r="L228">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="M228">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C229" t="s">
         <v>41</v>
       </c>
       <c r="E229" t="s">
-        <v>587</v>
+        <v>258</v>
       </c>
       <c r="F229" t="s">
         <v>26</v>
@@ -11778,7 +11765,7 @@
         <v>260</v>
       </c>
       <c r="H229" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
@@ -11787,24 +11774,24 @@
         <v>18</v>
       </c>
       <c r="L229">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M229">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C230" t="s">
         <v>41</v>
       </c>
       <c r="E230" t="s">
-        <v>599</v>
+        <v>258</v>
       </c>
       <c r="F230" t="s">
         <v>26</v>
@@ -11813,7 +11800,7 @@
         <v>260</v>
       </c>
       <c r="H230" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I230" t="s">
         <v>17</v>
@@ -11822,24 +11809,24 @@
         <v>18</v>
       </c>
       <c r="L230">
-        <v>516</v>
+        <v>1067</v>
       </c>
       <c r="M230">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C231" t="s">
         <v>41</v>
       </c>
       <c r="E231" t="s">
-        <v>258</v>
+        <v>582</v>
       </c>
       <c r="F231" t="s">
         <v>26</v>
@@ -11848,7 +11835,7 @@
         <v>260</v>
       </c>
       <c r="H231" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I231" t="s">
         <v>17</v>
@@ -11857,18 +11844,18 @@
         <v>18</v>
       </c>
       <c r="L231">
-        <v>431</v>
+        <v>1278</v>
       </c>
       <c r="M231">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C232" t="s">
         <v>41</v>
@@ -11883,7 +11870,7 @@
         <v>260</v>
       </c>
       <c r="H232" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I232" t="s">
         <v>17</v>
@@ -11892,18 +11879,18 @@
         <v>18</v>
       </c>
       <c r="L232">
-        <v>502</v>
+        <v>761</v>
       </c>
       <c r="M232">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C233" t="s">
         <v>41</v>
@@ -11918,7 +11905,7 @@
         <v>260</v>
       </c>
       <c r="H233" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
@@ -11927,24 +11914,24 @@
         <v>18</v>
       </c>
       <c r="L233">
-        <v>1067</v>
+        <v>763</v>
       </c>
       <c r="M233">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C234" t="s">
         <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>587</v>
+        <v>258</v>
       </c>
       <c r="F234" t="s">
         <v>26</v>
@@ -11953,7 +11940,7 @@
         <v>260</v>
       </c>
       <c r="H234" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I234" t="s">
         <v>17</v>
@@ -11962,24 +11949,24 @@
         <v>18</v>
       </c>
       <c r="L234">
-        <v>1278</v>
+        <v>593</v>
       </c>
       <c r="M234">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C235" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E235" t="s">
-        <v>258</v>
+        <v>611</v>
       </c>
       <c r="F235" t="s">
         <v>26</v>
@@ -11988,7 +11975,7 @@
         <v>260</v>
       </c>
       <c r="H235" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="I235" t="s">
         <v>17</v>
@@ -11997,33 +11984,36 @@
         <v>18</v>
       </c>
       <c r="L235">
-        <v>761</v>
+        <v>1021</v>
       </c>
       <c r="M235">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C236" t="s">
         <v>41</v>
       </c>
+      <c r="D236">
+        <v>39</v>
+      </c>
       <c r="E236" t="s">
-        <v>258</v>
+        <v>624</v>
       </c>
       <c r="F236" t="s">
-        <v>26</v>
+        <v>625</v>
       </c>
       <c r="G236" t="s">
-        <v>260</v>
+        <v>626</v>
       </c>
       <c r="H236" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="I236" t="s">
         <v>17</v>
@@ -12032,33 +12022,36 @@
         <v>18</v>
       </c>
       <c r="L236">
-        <v>763</v>
+        <v>237</v>
       </c>
       <c r="M236">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>25</v>
       </c>
       <c r="E237" t="s">
-        <v>258</v>
+        <v>629</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
+        <v>625</v>
       </c>
       <c r="G237" t="s">
-        <v>260</v>
+        <v>626</v>
       </c>
       <c r="H237" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="I237" t="s">
         <v>17</v>
@@ -12067,33 +12060,36 @@
         <v>18</v>
       </c>
       <c r="L237">
-        <v>593</v>
+        <v>143</v>
       </c>
       <c r="M237">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="D238">
+        <v>18</v>
       </c>
       <c r="E238" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="F238" t="s">
-        <v>26</v>
+        <v>625</v>
       </c>
       <c r="G238" t="s">
-        <v>260</v>
+        <v>626</v>
       </c>
       <c r="H238" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
@@ -12102,36 +12098,36 @@
         <v>18</v>
       </c>
       <c r="L238">
-        <v>1021</v>
+        <v>191</v>
       </c>
       <c r="M238">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C239" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D239">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F239" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G239" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H239" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="I239" t="s">
         <v>17</v>
@@ -12140,36 +12136,36 @@
         <v>18</v>
       </c>
       <c r="L239">
-        <v>237</v>
+        <v>899</v>
       </c>
       <c r="M239">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E240" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F240" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G240" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H240" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
@@ -12178,36 +12174,36 @@
         <v>18</v>
       </c>
       <c r="L240">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M240">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E241" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F241" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G241" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H241" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
@@ -12216,36 +12212,36 @@
         <v>18</v>
       </c>
       <c r="L241">
-        <v>191</v>
+        <v>759</v>
       </c>
       <c r="M241">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D242">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E242" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F242" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G242" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H242" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I242" t="s">
         <v>17</v>
@@ -12254,36 +12250,36 @@
         <v>18</v>
       </c>
       <c r="L242">
-        <v>899</v>
+        <v>850</v>
       </c>
       <c r="M242">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
       </c>
       <c r="D243">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F243" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G243" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H243" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I243" t="s">
         <v>17</v>
@@ -12292,36 +12288,36 @@
         <v>18</v>
       </c>
       <c r="L243">
-        <v>152</v>
+        <v>474</v>
       </c>
       <c r="M243">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>648</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>19</v>
+      </c>
+      <c r="E244" t="s">
         <v>646</v>
       </c>
-      <c r="C244" t="s">
-        <v>41</v>
-      </c>
-      <c r="D244">
-        <v>31</v>
-      </c>
-      <c r="E244" t="s">
-        <v>637</v>
-      </c>
       <c r="F244" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G244" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H244" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I244" t="s">
         <v>17</v>
@@ -12330,74 +12326,74 @@
         <v>18</v>
       </c>
       <c r="L244">
-        <v>759</v>
+        <v>437</v>
       </c>
       <c r="M244">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>650</v>
+      </c>
+      <c r="C245" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245">
+        <v>27</v>
+      </c>
+      <c r="E245" t="s">
+        <v>651</v>
+      </c>
+      <c r="F245" t="s">
+        <v>625</v>
+      </c>
+      <c r="G245" t="s">
+        <v>626</v>
+      </c>
+      <c r="H245" t="s">
+        <v>652</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" t="s">
+        <v>18</v>
+      </c>
+      <c r="L245">
         <v>647</v>
       </c>
-      <c r="C245" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245">
-        <v>35</v>
-      </c>
-      <c r="E245" t="s">
-        <v>648</v>
-      </c>
-      <c r="F245" t="s">
-        <v>630</v>
-      </c>
-      <c r="G245" t="s">
-        <v>631</v>
-      </c>
-      <c r="H245" t="s">
-        <v>649</v>
-      </c>
-      <c r="I245" t="s">
-        <v>17</v>
-      </c>
-      <c r="J245" t="s">
-        <v>18</v>
-      </c>
-      <c r="L245">
-        <v>850</v>
-      </c>
       <c r="M245">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C246" t="s">
         <v>12</v>
       </c>
       <c r="D246">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F246" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G246" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H246" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="I246" t="s">
         <v>17</v>
@@ -12406,36 +12402,36 @@
         <v>18</v>
       </c>
       <c r="L246">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="M246">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C247" t="s">
         <v>12</v>
       </c>
       <c r="D247">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F247" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G247" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H247" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="I247" t="s">
         <v>17</v>
@@ -12444,36 +12440,36 @@
         <v>18</v>
       </c>
       <c r="L247">
-        <v>437</v>
+        <v>301</v>
       </c>
       <c r="M247">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D248">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E248" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F248" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G248" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H248" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="I248" t="s">
         <v>17</v>
@@ -12482,36 +12478,36 @@
         <v>18</v>
       </c>
       <c r="L248">
-        <v>647</v>
+        <v>448</v>
       </c>
       <c r="M248">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>658</v>
+      <c r="B249" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E249" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="F249" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G249" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H249" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
@@ -12519,37 +12515,31 @@
       <c r="J249" t="s">
         <v>18</v>
       </c>
-      <c r="L249">
-        <v>626</v>
-      </c>
-      <c r="M249">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>660</v>
+      <c r="B250" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D250">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E250" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F250" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G250" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H250" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I250" t="s">
         <v>17</v>
@@ -12557,49 +12547,37 @@
       <c r="J250" t="s">
         <v>18</v>
       </c>
-      <c r="L250">
-        <v>301</v>
-      </c>
-      <c r="M250">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>663</v>
+      <c r="B251" s="4" t="s">
+        <v>667</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
       </c>
       <c r="D251">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E251" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F251" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G251" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H251" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="I251" t="s">
         <v>17</v>
       </c>
       <c r="J251" t="s">
         <v>18</v>
-      </c>
-      <c r="L251">
-        <v>448</v>
-      </c>
-      <c r="M251">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Normal1.xlsx
+++ b/Normal1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\עברית\נורמליים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AE066-FD84-4D71-BB05-C5ED59692F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917BE57-D154-491A-A7CB-17AABA6913DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="678">
   <si>
     <t>Serie</t>
   </si>
@@ -2068,18 +2068,6 @@
 מגיעה עד נתניה 🙂</t>
   </si>
   <si>
-    <t>מציעה, אימון תזונה בביתכם
-תמורת עזרה בסדר ובארגון
-אזור כפר ורדים -מעלות
-🍒</t>
-  </si>
-  <si>
-    <t>Orit Levav</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/265893208051540/user/559884587/?__cft__[0]=AZVM6GEY1NuflTuxYAKsn1FUrAexJHerX4n9WNoLCiHoXoUGu9pDqgTzhxH2npCvJ-_Psp9NvKo-b2c9O77NJ8zdg8CliVLClEsFfGFaLlGNFvpZBUcML5g4yozVN7upVLEgKWp6wak_r6oHvqoNB58Q_IwnXu6fnAka6Tk3n-7p4PWnkxgZ3__kAqTB2yt7zzvxTPSxlxopG0xNkhzbVwCq&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
     <t>אשמח לתת ייעוץ משפטי 
 בתמורה למסאג 
 (עדיפות: תל אביב-חולון-בת ים- רמת גן)</t>
@@ -2189,29 +2177,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/265893208051540/user/1250730921/?__cft__[0]=AZXn5lw57wnLRYtqTNUvrEQWpM0mfM4ohfFQQYTnWvgTMh7dj1xcA-3KviAzYAIeQbZY-v49_FPpRjA2R-f1Al746nAwuaJebXo40piGXaJRuFtwYTRtGpxWk0ORVL3NXzLqCj9y-NVddx9DB1n1xes69rCLZ2bfD5IJDeS3mfFxcIwLAILzFtKUVyG4G2kGzGJ7kQMTNeM5U_T42DJQKK8B&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
-    <t>facebook / מדברים על בתי מלון בישראל - ללא פילטרים</t>
-  </si>
-  <si>
-    <t>Shira Tal Hirshenzon</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/639502990026879/user/1589058756/?__cft__[0]=AZURi3jLOyEU-v8OhaQAUYuUVK_0y4vrnmHDKqOCoq4ycPP8zDgPjftkX5e2bTXBNB35uhX8Y4FvDRTybzPNNS-lz2WcHVGW5SIK8DunY-Z1jrf0RfI_nq7qGn2lfn2IcmC1uM0bW4C1i_HqtueoNr6eae1xUUp2tH6Cz-TiUpt6c4YN7BZ49DSWvmQfVA7NriXSrz43DT-emRGrJUUtXLP1&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
-    <t>היי אשמח לחוות דעת למלונות:
-מילוס ים המלח
-וורט ים המלח</t>
-  </si>
-  <si>
-    <t>איזה מלונות יש ששומרים כיפור עם ארוחה מפסקת וארוחה בצאת החג?</t>
-  </si>
-  <si>
-    <t>Yuval Bracha</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/639502990026879/user/100000393543125/?__cft__[0]=AZWfUmk--WtnUSvBRNzRSWQccbFE-qdhWkrtMAY5Om5ErRMeZwtQrKzOmbOQpant4K-7O_dA0nMp1wqSRJUC85ULQay9IPHnhvq9wvljTuCcElL373l3DrqOsL5gMKulaSaNoX76oKI7PghJ7K_7BVqrgCr5xNX7eXQJu_wszlmbFoZiDEigOg30p6EMxK15i2FUJfCbsnPVWgKNnvT8yGBn&amp;__tn__=-UC%2CP-R</t>
   </si>
   <si>
     <t>מה קורה? מתלבט לגבי איזה קורסים לקחת סמסטר הבא, אני סטודנט למתמטיקה ושוקל לקחת פיזיקה למתמטיקאים.
@@ -3132,12 +3097,72 @@
   <si>
     <t>https://www.askp.co.il/question/386873</t>
   </si>
+  <si>
+    <t>359.676</t>
+  </si>
+  <si>
+    <t>106535.27</t>
+  </si>
+  <si>
+    <t>326.39</t>
+  </si>
+  <si>
+    <t>79.084</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>4940.16</t>
+  </si>
+  <si>
+    <t>70.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>בריטה ומסנן מים,
+ראיתי בשוםרסל ב200 שקל (2.4 ליטר)
+האם יש אלטרנטיבות? 
+חברות אחרות טובות זולות יותר? סתם מקומות שיותר זולים...זה בכלל עובד הדבר הזה?</t>
+  </si>
+  <si>
+    <t>Idan Pozniak</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/rH6A6cuN1qCst1J3/</t>
+  </si>
+  <si>
+    <t>לאיפה אפשר להתקשר וגם לקבל מענה אנושי? -
+חב' דואר באחד משני סניפים. בטח שלא קיבלתי הודעה, אבל הזנתי מספר מעקב שמתחיל בRR ומסתיים בIL וראיתי שם שהחבילה נמצאת גם בסניף אחד בחיפה וגם בסניף אחר.
+לאן לפנות?
+תודה!</t>
+  </si>
+  <si>
+    <t>Maor Amsalem</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/geUUPeuBZnFamRTa/</t>
+  </si>
+  <si>
+    <t>מעקב אחרי אירועי יום יום לי ולאישתי יש עשרות אירועים\מטלות בחודש אנחנו מחפשים כלי פשוט וקל לנהל את כל המטלות האלה תורים לרופא ימי הולדת מסיבות בגן מסיבות בבית ספר וכו' יש כלי פשוט פשוט שאפשר להזין תאריך שעה ואת פרטי האירוע? הכי פשוט שיש הכי נגיש הכי קל</t>
+  </si>
+  <si>
+    <t>ניר טיבי</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/MwFrmsMQo5ZadqEo/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3163,6 +3188,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3200,7 +3230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3209,6 +3239,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3516,52 +3549,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P191" sqref="P191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="92.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>614</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3841,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -4002,7 +4033,7 @@
         <v>58</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>10</v>
@@ -4046,13 +4077,13 @@
         <v>55</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="P13">
-        <v>93255</v>
+        <v>89919</v>
       </c>
       <c r="Q13">
-        <v>20425</v>
+        <v>19771</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -4093,13 +4124,13 @@
         <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="P14">
-        <v>373.02</v>
-      </c>
-      <c r="Q14">
-        <v>81.7</v>
+        <v>607</v>
+      </c>
+      <c r="P14" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -4140,13 +4171,13 @@
         <v>66</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="P15">
-        <v>236.5</v>
-      </c>
-      <c r="Q15">
-        <v>53</v>
+        <v>232</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -4187,16 +4218,16 @@
         <v>26</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="P16">
-        <v>118110.099999999</v>
-      </c>
-      <c r="Q16">
-        <v>5380.0903614457802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="P16" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4234,16 +4265,16 @@
         <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="P17">
-        <v>343.67150012766501</v>
-      </c>
-      <c r="Q17">
-        <v>73.349099254495101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="P17" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4281,7 +4312,7 @@
         <v>35</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P18">
         <v>1725</v>
@@ -4290,7 +4321,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4328,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="P19">
         <v>46</v>
@@ -4337,7 +4368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4372,7 +4403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4409,8 +4440,11 @@
       <c r="M21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4448,7 +4482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4486,7 +4520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4524,7 +4558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4562,7 +4596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4600,7 +4634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4635,7 +4669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4673,7 +4707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4711,7 +4745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4749,7 +4783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4787,7 +4821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10088,10 +10122,10 @@
         <v>474</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E181" t="s">
-        <v>475</v>
+        <v>258</v>
       </c>
       <c r="F181" t="s">
         <v>460</v>
@@ -10100,7 +10134,7 @@
         <v>260</v>
       </c>
       <c r="H181" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I181" t="s">
         <v>17</v>
@@ -10109,10 +10143,10 @@
         <v>18</v>
       </c>
       <c r="L181">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M181">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -10120,13 +10154,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="F182" t="s">
         <v>460</v>
@@ -10135,7 +10169,7 @@
         <v>260</v>
       </c>
       <c r="H182" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="I182" t="s">
         <v>17</v>
@@ -10144,10 +10178,10 @@
         <v>18</v>
       </c>
       <c r="L182">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M182">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -10179,10 +10213,10 @@
         <v>18</v>
       </c>
       <c r="L183">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M183">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -10214,10 +10248,10 @@
         <v>18</v>
       </c>
       <c r="L184">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="M184">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -10249,10 +10283,10 @@
         <v>18</v>
       </c>
       <c r="L185">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M185">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -10263,7 +10297,7 @@
         <v>487</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E186" t="s">
         <v>488</v>
@@ -10284,10 +10318,10 @@
         <v>18</v>
       </c>
       <c r="L186">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="M186">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -10298,7 +10332,7 @@
         <v>490</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E187" t="s">
         <v>491</v>
@@ -10319,10 +10353,10 @@
         <v>18</v>
       </c>
       <c r="L187">
-        <v>155</v>
+        <v>501</v>
       </c>
       <c r="M187">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -10333,7 +10367,7 @@
         <v>493</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E188" t="s">
         <v>494</v>
@@ -10345,7 +10379,7 @@
         <v>260</v>
       </c>
       <c r="H188" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -10354,10 +10388,10 @@
         <v>18</v>
       </c>
       <c r="L188">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="M188">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -10365,13 +10399,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
         <v>496</v>
-      </c>
-      <c r="C189" t="s">
-        <v>41</v>
-      </c>
-      <c r="E189" t="s">
-        <v>497</v>
       </c>
       <c r="F189" t="s">
         <v>460</v>
@@ -10380,7 +10414,7 @@
         <v>260</v>
       </c>
       <c r="H189" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -10389,10 +10423,10 @@
         <v>18</v>
       </c>
       <c r="L189">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="M189">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -10402,20 +10436,17 @@
       <c r="B190" t="s">
         <v>498</v>
       </c>
-      <c r="C190" t="s">
-        <v>12</v>
-      </c>
       <c r="E190" t="s">
         <v>499</v>
       </c>
       <c r="F190" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="G190" t="s">
-        <v>260</v>
+        <v>501</v>
       </c>
       <c r="H190" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -10424,10 +10455,10 @@
         <v>18</v>
       </c>
       <c r="L190">
-        <v>277</v>
+        <v>1502</v>
       </c>
       <c r="M190">
-        <v>63</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -10435,22 +10466,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>503</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" t="s">
         <v>504</v>
       </c>
-      <c r="C191" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" t="s">
-        <v>502</v>
-      </c>
       <c r="F191" t="s">
+        <v>500</v>
+      </c>
+      <c r="G191" t="s">
         <v>501</v>
       </c>
-      <c r="G191" t="s">
-        <v>260</v>
-      </c>
       <c r="H191" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -10459,10 +10490,10 @@
         <v>18</v>
       </c>
       <c r="L191">
-        <v>46</v>
+        <v>599</v>
       </c>
       <c r="M191">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -10470,22 +10501,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C192" t="s">
         <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F192" t="s">
+        <v>500</v>
+      </c>
+      <c r="G192" t="s">
         <v>501</v>
       </c>
-      <c r="G192" t="s">
-        <v>260</v>
-      </c>
       <c r="H192" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I192" t="s">
         <v>17</v>
@@ -10494,10 +10525,10 @@
         <v>18</v>
       </c>
       <c r="L192">
-        <v>50</v>
+        <v>698</v>
       </c>
       <c r="M192">
-        <v>11</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -10505,20 +10536,20 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E193" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F193" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G193" t="s">
+        <v>501</v>
+      </c>
+      <c r="H193" t="s">
         <v>511</v>
       </c>
-      <c r="H193" t="s">
-        <v>512</v>
-      </c>
       <c r="I193" t="s">
         <v>17</v>
       </c>
@@ -10526,10 +10557,10 @@
         <v>18</v>
       </c>
       <c r="L193">
-        <v>1502</v>
+        <v>944</v>
       </c>
       <c r="M193">
-        <v>269</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -10537,23 +10568,23 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>512</v>
+      </c>
+      <c r="C194" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" t="s">
         <v>513</v>
       </c>
-      <c r="C194" t="s">
-        <v>41</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
+        <v>500</v>
+      </c>
+      <c r="G194" t="s">
+        <v>501</v>
+      </c>
+      <c r="H194" t="s">
         <v>514</v>
       </c>
-      <c r="F194" t="s">
-        <v>510</v>
-      </c>
-      <c r="G194" t="s">
-        <v>511</v>
-      </c>
-      <c r="H194" t="s">
-        <v>515</v>
-      </c>
       <c r="I194" t="s">
         <v>17</v>
       </c>
@@ -10561,10 +10592,10 @@
         <v>18</v>
       </c>
       <c r="L194">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M194">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -10572,23 +10603,20 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>515</v>
+      </c>
+      <c r="E195" t="s">
         <v>516</v>
       </c>
-      <c r="C195" t="s">
-        <v>41</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
+        <v>500</v>
+      </c>
+      <c r="G195" t="s">
+        <v>501</v>
+      </c>
+      <c r="H195" t="s">
         <v>517</v>
       </c>
-      <c r="F195" t="s">
-        <v>510</v>
-      </c>
-      <c r="G195" t="s">
-        <v>511</v>
-      </c>
-      <c r="H195" t="s">
-        <v>518</v>
-      </c>
       <c r="I195" t="s">
         <v>17</v>
       </c>
@@ -10596,10 +10624,10 @@
         <v>18</v>
       </c>
       <c r="L195">
-        <v>698</v>
+        <v>860</v>
       </c>
       <c r="M195">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -10607,20 +10635,23 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>518</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
         <v>519</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
+        <v>500</v>
+      </c>
+      <c r="G196" t="s">
+        <v>501</v>
+      </c>
+      <c r="H196" t="s">
         <v>520</v>
       </c>
-      <c r="F196" t="s">
-        <v>510</v>
-      </c>
-      <c r="G196" t="s">
-        <v>511</v>
-      </c>
-      <c r="H196" t="s">
-        <v>521</v>
-      </c>
       <c r="I196" t="s">
         <v>17</v>
       </c>
@@ -10628,10 +10659,10 @@
         <v>18</v>
       </c>
       <c r="L196">
-        <v>944</v>
+        <v>893</v>
       </c>
       <c r="M196">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -10639,23 +10670,23 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>521</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
         <v>522</v>
       </c>
-      <c r="C197" t="s">
-        <v>41</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>260</v>
+      </c>
+      <c r="H197" t="s">
         <v>523</v>
       </c>
-      <c r="F197" t="s">
-        <v>510</v>
-      </c>
-      <c r="G197" t="s">
-        <v>511</v>
-      </c>
-      <c r="H197" t="s">
-        <v>524</v>
-      </c>
       <c r="I197" t="s">
         <v>17</v>
       </c>
@@ -10663,10 +10694,10 @@
         <v>18</v>
       </c>
       <c r="L197">
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="M197">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -10674,20 +10705,17 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>524</v>
+      </c>
+      <c r="F198" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" t="s">
+        <v>260</v>
+      </c>
+      <c r="H198" t="s">
         <v>525</v>
       </c>
-      <c r="E198" t="s">
-        <v>526</v>
-      </c>
-      <c r="F198" t="s">
-        <v>510</v>
-      </c>
-      <c r="G198" t="s">
-        <v>511</v>
-      </c>
-      <c r="H198" t="s">
-        <v>527</v>
-      </c>
       <c r="I198" t="s">
         <v>17</v>
       </c>
@@ -10695,10 +10723,10 @@
         <v>18</v>
       </c>
       <c r="L198">
-        <v>860</v>
+        <v>937</v>
       </c>
       <c r="M198">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -10706,23 +10734,23 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>526</v>
+      </c>
+      <c r="C199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>527</v>
+      </c>
+      <c r="F199" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" t="s">
+        <v>260</v>
+      </c>
+      <c r="H199" t="s">
         <v>528</v>
       </c>
-      <c r="C199" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" t="s">
-        <v>529</v>
-      </c>
-      <c r="F199" t="s">
-        <v>510</v>
-      </c>
-      <c r="G199" t="s">
-        <v>511</v>
-      </c>
-      <c r="H199" t="s">
-        <v>530</v>
-      </c>
       <c r="I199" t="s">
         <v>17</v>
       </c>
@@ -10730,10 +10758,10 @@
         <v>18</v>
       </c>
       <c r="L199">
-        <v>893</v>
+        <v>682</v>
       </c>
       <c r="M199">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -10741,13 +10769,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E200" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F200" t="s">
         <v>26</v>
@@ -10756,7 +10784,7 @@
         <v>260</v>
       </c>
       <c r="H200" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I200" t="s">
         <v>17</v>
@@ -10765,10 +10793,10 @@
         <v>18</v>
       </c>
       <c r="L200">
-        <v>1140</v>
+        <v>624</v>
       </c>
       <c r="M200">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -10776,7 +10804,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>527</v>
       </c>
       <c r="F201" t="s">
         <v>26</v>
@@ -10785,7 +10819,7 @@
         <v>260</v>
       </c>
       <c r="H201" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -10794,10 +10828,10 @@
         <v>18</v>
       </c>
       <c r="L201">
-        <v>937</v>
+        <v>1725</v>
       </c>
       <c r="M201">
-        <v>237</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -10805,13 +10839,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C202" t="s">
         <v>41</v>
       </c>
       <c r="E202" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -10820,7 +10854,7 @@
         <v>260</v>
       </c>
       <c r="H202" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I202" t="s">
         <v>17</v>
@@ -10829,10 +10863,10 @@
         <v>18</v>
       </c>
       <c r="L202">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="M202">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -10840,13 +10874,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C203" t="s">
         <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F203" t="s">
         <v>26</v>
@@ -10855,7 +10889,7 @@
         <v>260</v>
       </c>
       <c r="H203" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I203" t="s">
         <v>17</v>
@@ -10864,10 +10898,10 @@
         <v>18</v>
       </c>
       <c r="L203">
-        <v>624</v>
+        <v>737</v>
       </c>
       <c r="M203">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -10875,13 +10909,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C204" t="s">
         <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -10890,7 +10924,7 @@
         <v>260</v>
       </c>
       <c r="H204" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I204" t="s">
         <v>17</v>
@@ -10899,10 +10933,10 @@
         <v>18</v>
       </c>
       <c r="L204">
-        <v>1725</v>
+        <v>1232</v>
       </c>
       <c r="M204">
-        <v>400</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -10910,13 +10944,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E205" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -10925,7 +10959,7 @@
         <v>260</v>
       </c>
       <c r="H205" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I205" t="s">
         <v>17</v>
@@ -10934,10 +10968,10 @@
         <v>18</v>
       </c>
       <c r="L205">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="M205">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -10945,13 +10979,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E206" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -10960,7 +10994,7 @@
         <v>260</v>
       </c>
       <c r="H206" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I206" t="s">
         <v>17</v>
@@ -10969,10 +11003,10 @@
         <v>18</v>
       </c>
       <c r="L206">
-        <v>737</v>
+        <v>878</v>
       </c>
       <c r="M206">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -10980,13 +11014,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -10995,7 +11029,7 @@
         <v>260</v>
       </c>
       <c r="H207" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I207" t="s">
         <v>17</v>
@@ -11004,10 +11038,10 @@
         <v>18</v>
       </c>
       <c r="L207">
-        <v>1232</v>
+        <v>572</v>
       </c>
       <c r="M207">
-        <v>278</v>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -11015,13 +11049,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E208" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="F208" t="s">
         <v>26</v>
@@ -11030,7 +11064,7 @@
         <v>260</v>
       </c>
       <c r="H208" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
@@ -11039,10 +11073,10 @@
         <v>18</v>
       </c>
       <c r="L208">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="M208">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -11050,13 +11084,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E209" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="F209" t="s">
         <v>26</v>
@@ -11065,7 +11099,7 @@
         <v>260</v>
       </c>
       <c r="H209" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I209" t="s">
         <v>17</v>
@@ -11074,10 +11108,10 @@
         <v>18</v>
       </c>
       <c r="L209">
-        <v>878</v>
+        <v>1068</v>
       </c>
       <c r="M209">
-        <v>184</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -11085,13 +11119,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C210" t="s">
         <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -11100,7 +11134,7 @@
         <v>260</v>
       </c>
       <c r="H210" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
@@ -11109,10 +11143,10 @@
         <v>18</v>
       </c>
       <c r="L210">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="M210">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -11120,13 +11154,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E211" t="s">
-        <v>537</v>
+        <v>258</v>
       </c>
       <c r="F211" t="s">
         <v>26</v>
@@ -11135,7 +11169,7 @@
         <v>260</v>
       </c>
       <c r="H211" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
@@ -11144,10 +11178,10 @@
         <v>18</v>
       </c>
       <c r="L211">
-        <v>658</v>
+        <v>872</v>
       </c>
       <c r="M211">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -11155,13 +11189,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C212" t="s">
         <v>41</v>
       </c>
       <c r="E212" t="s">
-        <v>537</v>
+        <v>258</v>
       </c>
       <c r="F212" t="s">
         <v>26</v>
@@ -11170,7 +11204,7 @@
         <v>260</v>
       </c>
       <c r="H212" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
@@ -11179,10 +11213,10 @@
         <v>18</v>
       </c>
       <c r="L212">
-        <v>1068</v>
+        <v>622</v>
       </c>
       <c r="M212">
-        <v>231</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11190,13 +11224,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C213" t="s">
         <v>41</v>
       </c>
       <c r="E213" t="s">
-        <v>562</v>
+        <v>258</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -11205,7 +11239,7 @@
         <v>260</v>
       </c>
       <c r="H213" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I213" t="s">
         <v>17</v>
@@ -11214,10 +11248,10 @@
         <v>18</v>
       </c>
       <c r="L213">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="M213">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -11225,10 +11259,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E214" t="s">
         <v>258</v>
@@ -11240,7 +11274,7 @@
         <v>260</v>
       </c>
       <c r="H214" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
@@ -11249,10 +11283,10 @@
         <v>18</v>
       </c>
       <c r="L214">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="M214">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -11260,10 +11294,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E215" t="s">
         <v>258</v>
@@ -11275,7 +11309,7 @@
         <v>260</v>
       </c>
       <c r="H215" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
@@ -11284,10 +11318,10 @@
         <v>18</v>
       </c>
       <c r="L215">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="M215">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -11295,13 +11329,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="E216" t="s">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="F216" t="s">
         <v>26</v>
@@ -11310,7 +11344,7 @@
         <v>260</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I216" t="s">
         <v>17</v>
@@ -11319,10 +11353,10 @@
         <v>18</v>
       </c>
       <c r="L216">
-        <v>606</v>
+        <v>730</v>
       </c>
       <c r="M216">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -11330,13 +11364,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C217" t="s">
         <v>41</v>
       </c>
       <c r="E217" t="s">
-        <v>258</v>
+        <v>568</v>
       </c>
       <c r="F217" t="s">
         <v>26</v>
@@ -11345,7 +11379,7 @@
         <v>260</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
@@ -11354,10 +11388,10 @@
         <v>18</v>
       </c>
       <c r="L217">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="M217">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11365,10 +11399,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E218" t="s">
         <v>258</v>
@@ -11380,7 +11414,7 @@
         <v>260</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I218" t="s">
         <v>17</v>
@@ -11392,7 +11426,7 @@
         <v>714</v>
       </c>
       <c r="M218">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -11400,13 +11434,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C219" t="s">
         <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>575</v>
+        <v>258</v>
       </c>
       <c r="F219" t="s">
         <v>26</v>
@@ -11415,7 +11449,7 @@
         <v>260</v>
       </c>
       <c r="H219" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I219" t="s">
         <v>17</v>
@@ -11424,10 +11458,10 @@
         <v>18</v>
       </c>
       <c r="L219">
-        <v>730</v>
+        <v>603</v>
       </c>
       <c r="M219">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -11435,13 +11469,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C220" t="s">
         <v>41</v>
       </c>
       <c r="E220" t="s">
-        <v>578</v>
+        <v>258</v>
       </c>
       <c r="F220" t="s">
         <v>26</v>
@@ -11450,7 +11484,7 @@
         <v>260</v>
       </c>
       <c r="H220" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
@@ -11459,10 +11493,10 @@
         <v>18</v>
       </c>
       <c r="L220">
-        <v>784</v>
+        <v>1315</v>
       </c>
       <c r="M220">
-        <v>170</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -11470,7 +11504,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
@@ -11485,7 +11519,7 @@
         <v>260</v>
       </c>
       <c r="H221" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
@@ -11494,10 +11528,10 @@
         <v>18</v>
       </c>
       <c r="L221">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="M221">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -11505,7 +11539,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
@@ -11520,7 +11554,7 @@
         <v>260</v>
       </c>
       <c r="H222" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I222" t="s">
         <v>17</v>
@@ -11529,10 +11563,10 @@
         <v>18</v>
       </c>
       <c r="L222">
-        <v>603</v>
+        <v>481</v>
       </c>
       <c r="M222">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -11540,13 +11574,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C223" t="s">
         <v>41</v>
       </c>
       <c r="E223" t="s">
-        <v>258</v>
+        <v>572</v>
       </c>
       <c r="F223" t="s">
         <v>26</v>
@@ -11555,7 +11589,7 @@
         <v>260</v>
       </c>
       <c r="H223" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
@@ -11564,10 +11598,10 @@
         <v>18</v>
       </c>
       <c r="L223">
-        <v>1315</v>
+        <v>505</v>
       </c>
       <c r="M223">
-        <v>298</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -11575,13 +11609,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C224" t="s">
         <v>41</v>
       </c>
       <c r="E224" t="s">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="F224" t="s">
         <v>26</v>
@@ -11590,7 +11624,7 @@
         <v>260</v>
       </c>
       <c r="H224" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
@@ -11599,10 +11633,10 @@
         <v>18</v>
       </c>
       <c r="L224">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="M224">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -11610,7 +11644,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C225" t="s">
         <v>41</v>
@@ -11625,7 +11659,7 @@
         <v>260</v>
       </c>
       <c r="H225" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -11634,10 +11668,10 @@
         <v>18</v>
       </c>
       <c r="L225">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="M225">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -11645,13 +11679,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C226" t="s">
         <v>41</v>
       </c>
       <c r="E226" t="s">
-        <v>582</v>
+        <v>258</v>
       </c>
       <c r="F226" t="s">
         <v>26</v>
@@ -11660,7 +11694,7 @@
         <v>260</v>
       </c>
       <c r="H226" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I226" t="s">
         <v>17</v>
@@ -11669,10 +11703,10 @@
         <v>18</v>
       </c>
       <c r="L226">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M226">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -11680,13 +11714,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C227" t="s">
         <v>41</v>
       </c>
       <c r="E227" t="s">
-        <v>594</v>
+        <v>258</v>
       </c>
       <c r="F227" t="s">
         <v>26</v>
@@ -11695,7 +11729,7 @@
         <v>260</v>
       </c>
       <c r="H227" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I227" t="s">
         <v>17</v>
@@ -11704,10 +11738,10 @@
         <v>18</v>
       </c>
       <c r="L227">
-        <v>516</v>
+        <v>1067</v>
       </c>
       <c r="M227">
-        <v>113</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -11715,13 +11749,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
       </c>
       <c r="E228" t="s">
-        <v>258</v>
+        <v>572</v>
       </c>
       <c r="F228" t="s">
         <v>26</v>
@@ -11730,7 +11764,7 @@
         <v>260</v>
       </c>
       <c r="H228" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
@@ -11739,10 +11773,10 @@
         <v>18</v>
       </c>
       <c r="L228">
-        <v>431</v>
+        <v>1278</v>
       </c>
       <c r="M228">
-        <v>106</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -11750,7 +11784,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C229" t="s">
         <v>41</v>
@@ -11765,7 +11799,7 @@
         <v>260</v>
       </c>
       <c r="H229" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
@@ -11774,10 +11808,10 @@
         <v>18</v>
       </c>
       <c r="L229">
-        <v>502</v>
+        <v>761</v>
       </c>
       <c r="M229">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -11785,7 +11819,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C230" t="s">
         <v>41</v>
@@ -11800,7 +11834,7 @@
         <v>260</v>
       </c>
       <c r="H230" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I230" t="s">
         <v>17</v>
@@ -11809,10 +11843,10 @@
         <v>18</v>
       </c>
       <c r="L230">
-        <v>1067</v>
+        <v>763</v>
       </c>
       <c r="M230">
-        <v>228</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -11820,13 +11854,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C231" t="s">
         <v>41</v>
       </c>
       <c r="E231" t="s">
-        <v>582</v>
+        <v>258</v>
       </c>
       <c r="F231" t="s">
         <v>26</v>
@@ -11835,7 +11869,7 @@
         <v>260</v>
       </c>
       <c r="H231" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I231" t="s">
         <v>17</v>
@@ -11844,10 +11878,10 @@
         <v>18</v>
       </c>
       <c r="L231">
-        <v>1278</v>
+        <v>593</v>
       </c>
       <c r="M231">
-        <v>292</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -11855,13 +11889,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E232" t="s">
-        <v>258</v>
+        <v>601</v>
       </c>
       <c r="F232" t="s">
         <v>26</v>
@@ -11870,7 +11904,7 @@
         <v>260</v>
       </c>
       <c r="H232" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I232" t="s">
         <v>17</v>
@@ -11879,10 +11913,10 @@
         <v>18</v>
       </c>
       <c r="L232">
-        <v>761</v>
+        <v>1021</v>
       </c>
       <c r="M232">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -11890,22 +11924,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C233" t="s">
         <v>41</v>
       </c>
+      <c r="D233">
+        <v>39</v>
+      </c>
       <c r="E233" t="s">
-        <v>258</v>
+        <v>614</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
+        <v>615</v>
       </c>
       <c r="G233" t="s">
-        <v>260</v>
+        <v>616</v>
       </c>
       <c r="H233" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
@@ -11914,10 +11951,10 @@
         <v>18</v>
       </c>
       <c r="L233">
-        <v>763</v>
+        <v>237</v>
       </c>
       <c r="M233">
-        <v>169</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -11925,22 +11962,25 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>25</v>
       </c>
       <c r="E234" t="s">
-        <v>258</v>
+        <v>619</v>
       </c>
       <c r="F234" t="s">
-        <v>26</v>
+        <v>615</v>
       </c>
       <c r="G234" t="s">
-        <v>260</v>
+        <v>616</v>
       </c>
       <c r="H234" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="I234" t="s">
         <v>17</v>
@@ -11949,10 +11989,10 @@
         <v>18</v>
       </c>
       <c r="L234">
-        <v>593</v>
+        <v>143</v>
       </c>
       <c r="M234">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -11960,22 +12000,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="D235">
+        <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
+        <v>615</v>
       </c>
       <c r="G235" t="s">
-        <v>260</v>
+        <v>616</v>
       </c>
       <c r="H235" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="I235" t="s">
         <v>17</v>
@@ -11984,10 +12027,10 @@
         <v>18</v>
       </c>
       <c r="L235">
-        <v>1021</v>
+        <v>191</v>
       </c>
       <c r="M235">
-        <v>202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -11995,26 +12038,26 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D236">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E236" t="s">
+        <v>625</v>
+      </c>
+      <c r="F236" t="s">
+        <v>615</v>
+      </c>
+      <c r="G236" t="s">
+        <v>616</v>
+      </c>
+      <c r="H236" t="s">
         <v>624</v>
       </c>
-      <c r="F236" t="s">
-        <v>625</v>
-      </c>
-      <c r="G236" t="s">
-        <v>626</v>
-      </c>
-      <c r="H236" t="s">
-        <v>627</v>
-      </c>
       <c r="I236" t="s">
         <v>17</v>
       </c>
@@ -12022,10 +12065,10 @@
         <v>18</v>
       </c>
       <c r="L236">
-        <v>237</v>
+        <v>899</v>
       </c>
       <c r="M236">
-        <v>53</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -12033,26 +12076,26 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E237" t="s">
+        <v>628</v>
+      </c>
+      <c r="F237" t="s">
+        <v>615</v>
+      </c>
+      <c r="G237" t="s">
+        <v>616</v>
+      </c>
+      <c r="H237" t="s">
         <v>629</v>
       </c>
-      <c r="F237" t="s">
-        <v>625</v>
-      </c>
-      <c r="G237" t="s">
-        <v>626</v>
-      </c>
-      <c r="H237" t="s">
-        <v>628</v>
-      </c>
       <c r="I237" t="s">
         <v>17</v>
       </c>
@@ -12060,10 +12103,10 @@
         <v>18</v>
       </c>
       <c r="L237">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M237">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -12077,19 +12120,19 @@
         <v>41</v>
       </c>
       <c r="D238">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E238" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F238" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G238" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H238" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
@@ -12098,10 +12141,10 @@
         <v>18</v>
       </c>
       <c r="L238">
-        <v>191</v>
+        <v>759</v>
       </c>
       <c r="M238">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -12109,22 +12152,22 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D239">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E239" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F239" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G239" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H239" t="s">
         <v>634</v>
@@ -12136,10 +12179,10 @@
         <v>18</v>
       </c>
       <c r="L239">
-        <v>899</v>
+        <v>850</v>
       </c>
       <c r="M239">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -12147,25 +12190,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F240" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G240" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H240" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
@@ -12174,10 +12217,10 @@
         <v>18</v>
       </c>
       <c r="L240">
-        <v>152</v>
+        <v>474</v>
       </c>
       <c r="M240">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -12185,25 +12228,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C241" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D241">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E241" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F241" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G241" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H241" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
@@ -12212,10 +12255,10 @@
         <v>18</v>
       </c>
       <c r="L241">
-        <v>759</v>
+        <v>437</v>
       </c>
       <c r="M241">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -12223,26 +12266,26 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>640</v>
+      </c>
+      <c r="C242" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242">
+        <v>27</v>
+      </c>
+      <c r="E242" t="s">
+        <v>641</v>
+      </c>
+      <c r="F242" t="s">
+        <v>615</v>
+      </c>
+      <c r="G242" t="s">
+        <v>616</v>
+      </c>
+      <c r="H242" t="s">
         <v>642</v>
       </c>
-      <c r="C242" t="s">
-        <v>41</v>
-      </c>
-      <c r="D242">
-        <v>35</v>
-      </c>
-      <c r="E242" t="s">
-        <v>643</v>
-      </c>
-      <c r="F242" t="s">
-        <v>625</v>
-      </c>
-      <c r="G242" t="s">
-        <v>626</v>
-      </c>
-      <c r="H242" t="s">
-        <v>644</v>
-      </c>
       <c r="I242" t="s">
         <v>17</v>
       </c>
@@ -12250,10 +12293,10 @@
         <v>18</v>
       </c>
       <c r="L242">
-        <v>850</v>
+        <v>647</v>
       </c>
       <c r="M242">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -12261,37 +12304,37 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
       </c>
       <c r="D243">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F243" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G243" t="s">
+        <v>616</v>
+      </c>
+      <c r="H243" t="s">
+        <v>644</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" t="s">
+        <v>18</v>
+      </c>
+      <c r="L243">
         <v>626</v>
       </c>
-      <c r="H243" t="s">
-        <v>647</v>
-      </c>
-      <c r="I243" t="s">
-        <v>17</v>
-      </c>
-      <c r="J243" t="s">
-        <v>18</v>
-      </c>
-      <c r="L243">
-        <v>474</v>
-      </c>
       <c r="M243">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -12299,25 +12342,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
       </c>
       <c r="D244">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E244" t="s">
         <v>646</v>
       </c>
       <c r="F244" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G244" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H244" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I244" t="s">
         <v>17</v>
@@ -12326,10 +12369,10 @@
         <v>18</v>
       </c>
       <c r="L244">
-        <v>437</v>
+        <v>301</v>
       </c>
       <c r="M244">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -12337,26 +12380,26 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>648</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245">
+        <v>90</v>
+      </c>
+      <c r="E245" t="s">
+        <v>649</v>
+      </c>
+      <c r="F245" t="s">
+        <v>615</v>
+      </c>
+      <c r="G245" t="s">
+        <v>616</v>
+      </c>
+      <c r="H245" t="s">
         <v>650</v>
       </c>
-      <c r="C245" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245">
-        <v>27</v>
-      </c>
-      <c r="E245" t="s">
-        <v>651</v>
-      </c>
-      <c r="F245" t="s">
-        <v>625</v>
-      </c>
-      <c r="G245" t="s">
-        <v>626</v>
-      </c>
-      <c r="H245" t="s">
-        <v>652</v>
-      </c>
       <c r="I245" t="s">
         <v>17</v>
       </c>
@@ -12364,10 +12407,10 @@
         <v>18</v>
       </c>
       <c r="L245">
-        <v>647</v>
+        <v>448</v>
       </c>
       <c r="M245">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -12375,25 +12418,25 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C246" t="s">
         <v>12</v>
       </c>
       <c r="D246">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E246" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F246" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G246" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H246" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I246" t="s">
         <v>17</v>
@@ -12402,10 +12445,10 @@
         <v>18</v>
       </c>
       <c r="L246">
-        <v>626</v>
+        <v>172</v>
       </c>
       <c r="M246">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -12413,26 +12456,26 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>654</v>
+      </c>
+      <c r="C247" t="s">
+        <v>41</v>
+      </c>
+      <c r="D247">
+        <v>21</v>
+      </c>
+      <c r="E247" t="s">
         <v>655</v>
       </c>
-      <c r="C247" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247">
-        <v>16</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
+        <v>615</v>
+      </c>
+      <c r="G247" t="s">
+        <v>616</v>
+      </c>
+      <c r="H247" t="s">
         <v>656</v>
       </c>
-      <c r="F247" t="s">
-        <v>625</v>
-      </c>
-      <c r="G247" t="s">
-        <v>626</v>
-      </c>
-      <c r="H247" t="s">
-        <v>657</v>
-      </c>
       <c r="I247" t="s">
         <v>17</v>
       </c>
@@ -12440,10 +12483,10 @@
         <v>18</v>
       </c>
       <c r="L247">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="M247">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -12451,26 +12494,26 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
       </c>
       <c r="D248">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E248" t="s">
+        <v>658</v>
+      </c>
+      <c r="F248" t="s">
+        <v>615</v>
+      </c>
+      <c r="G248" t="s">
+        <v>616</v>
+      </c>
+      <c r="H248" t="s">
         <v>659</v>
       </c>
-      <c r="F248" t="s">
-        <v>625</v>
-      </c>
-      <c r="G248" t="s">
-        <v>626</v>
-      </c>
-      <c r="H248" t="s">
-        <v>660</v>
-      </c>
       <c r="I248" t="s">
         <v>17</v>
       </c>
@@ -12478,36 +12521,33 @@
         <v>18</v>
       </c>
       <c r="L248">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="M248">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>661</v>
+      <c r="B249" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E249" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F249" t="s">
-        <v>625</v>
+        <v>26</v>
       </c>
       <c r="G249" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="H249" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
@@ -12516,30 +12556,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>664</v>
+      <c r="B250" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="C250" t="s">
         <v>41</v>
       </c>
-      <c r="D250">
-        <v>21</v>
-      </c>
       <c r="E250" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F250" t="s">
-        <v>625</v>
+        <v>26</v>
       </c>
       <c r="G250" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="H250" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I250" t="s">
         <v>17</v>
@@ -12548,30 +12585,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>667</v>
+      <c r="B251" t="s">
+        <v>675</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E251" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="F251" t="s">
-        <v>625</v>
+        <v>26</v>
       </c>
       <c r="G251" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="H251" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="I251" t="s">
         <v>17</v>
